--- a/1.TestCase[SW]/TestCase[ST16_Full].xlsx
+++ b/1.TestCase[SW]/TestCase[ST16_Full].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="615" windowWidth="19200" windowHeight="16440" activeTab="5"/>
+    <workbookView xWindow="19200" yWindow="615" windowWidth="19200" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试执行" sheetId="6" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="735">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,25 +835,9 @@
     <t>遥控器_Follow mode_004</t>
   </si>
   <si>
-    <t>1.将飞行模式开关切换至Follow Mode，检查机尾灯状态。
-2.尝试使用起落架开关升起、放下起落架。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.飞机绑定成功，模式开关切换至Follow Mode 后，机尾灯呈绿色慢闪。
-2.飞机未起飞，起落架开关没有功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2.飞机起飞后，飞机起落架可根据开关收起、放下。
 3.飞机自动进入无头模式将遥控器对准飞机，无论飞机机头指向，飞机的机头方向以飞手为基准,摇杆回中后飞机立刻停止之前摇杆指示方向上的运动（可伴有“刹车”姿态）。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Angle模式起飞，随后切到Smart 模式,两手离开遥控器摇杆；
-2.使用起落架开关升起、放下起落架，
-3.在Follow飞行模式下，操纵遥控器的两个摇杆对飞机进行控制（俯仰前后，副翼左右，高度上下，顺时针自旋，逆时针自旋）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,17 +897,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.在遥控器未与飞机连接或飞机与遥控器中任意一个卫星没定位，在Follow/Watch开关的位置上都显示Not AVAILIABLE,点击后也没有反应；
-2.都定位后点击Follow/Watch me功能切换开关后，开关Watch的底色变成红色，原来Follow的底色由红色变成黑色，原来表示Follow的高亮箭头图标变暗，表示Watch的眼睛图标变成高亮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_Watch me_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Angel模式起前，
-2.点击遥控器屏幕右侧Follow/Watch me切换开关。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1001,11 +975,6 @@
   </si>
   <si>
     <t>1.Angle 模式下，飞机执行CCC功能时，
-2.将遥控器模式开关切换至Home，检查飞机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.分别在执行Orbit，POI和JOUR功能时，
 2.将遥控器模式开关切换至Home，检查飞机状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,13 +1062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.将飞机飞至15米高，30米远外，
-2.在任意姿态、任意模式，任意功能下切换至Home模式，
-3.在飞机达到Home点上空之前操作操作起落架控制拨杆，
-4.在飞机到达Home点后，下降时开始操作操作起落架控制拨杆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.状态栏为Home时，起落架控制拨杆可控制起落架收放；
 4.状态栏为LANDING时，拨动起落架收放拨杆，起落架一直保持放下状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,12 +1095,6 @@
   </si>
   <si>
     <t>1.打开 “System Settings”-&gt;"Other Settings"，打开Advanced mode。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击SAVE键，遥控器出现弹窗，编辑航线命名后，点击SAVE后，即可存储当前航线信息；
-2.点击LIST可看到已经保存的航线信息列表，并且可选中，重复执行已经保存的航线；
-3.点击BACK后，退出CCC功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1149,20 +1105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.将屏幕上的弹窗滑块滑倒最右边（可穿插故意滑动不到位和点击Cancle测试），
-2.向上推油门杆，
-3.向下拉油门杆，
-4.航线速度与方向控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击START，将屏幕中弹窗的滑块滑到最右侧，飞行模式栏显示飞行模式为CCC，遥控器下方选项开关变成EXIT、暂停和SAVE键，飞机机臂下方马达灯轮流闪烁N圈，直到所有航点信息传输完毕，马达灯停止绕圈闪烁，机身中央LED灯绿紫慢闪，飞机飞向第一个航点，到达后自动悬停。如果开始时滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框，
-2.向上推油门，通过杆量指定飞机加速度，通过与打杆时间积分设定飞机在航线上的飞行速度，飞机自动沿着航点连成的航线按指定速度飞行，直至飞行到最后的航点后保持悬停，
-3.向下收油门，飞机从最后一个航点按原路径返回，飞往第一个航点，
-4.在飞行的过程中，也可通过油门杆调整飞机的飞行速度，反向拨动油门杆减速，正向拨动油门杆加速。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.暂停与继续航点任务
 2.退出任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,10 +1170,6 @@
   </si>
   <si>
     <t>1.点击TASK/CAMERA按键。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.屏幕下方出现CCC、Jour、Poi、Orbit、Take Off五个选项。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1243,14 +1181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.屏幕出现对于CCC功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入CCC模式，遥控器左侧有对于CCC操作的简略介绍，屏幕下方出现BACK、RESET、-、+、LIST、SAVE、START五个按钮；
-2.点击CCC后，点击+，当前飞机悬停点的三维信息和机头朝向、云台航向和俯仰角度即可作为航点信息，并在遥控器左上方屏幕增加一个POINT点，
-3.点击“-”删除最后一个航点，
-4.点击RESET删除所有航点;
-5.执行CCC任务后，飞机所在的航点对应在遥控器上用红色底色显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_Advanced_017</t>
   </si>
   <si>
@@ -1265,19 +1195,6 @@
   </si>
   <si>
     <t>1.进入POI功能后，点击START之前，点击BACK。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.飞机退出POI功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.将飞机飞离兴趣点一段距离点击START,将屏幕上的弹窗滑块滑倒最右边（可穿插故意滑动不到位和点击Cancle测试）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.如果滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框；
-2-2.将飞机拉远，离开CENTER点，点击START后，将屏幕中弹窗的滑块滑到最右侧,飞行模式显示为POI,主LED灯绿、紫慢闪，飞机与兴趣点之间的距离就是半径，如距离中心点距离过短，滑动滑块后，飞机自动和中心点拉远，机头指向兴趣点，并自动保持悬停。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1311,12 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或副翼、升降舵任意打一个键（不论方向），遥控器的“播放键”变成“暂停键”，飞机继续正向完成未完成的环绕任务，若继续拉住副翼或升降摇杆不松，飞机在继续环绕任务后，会根据摇杆方向正向/反向完成环绕任务，或增大/缩小环绕半径。
-2.暂停后，上/下推拉油门，飞机则在原地爬升/下降，但仍处于任务暂停状态。
-3.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出POI功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项；飞手重新获得飞机操控权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.飞机在POI航线自主飞行过程中，任意时间将开关切换至Home.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,18 +1249,6 @@
   </si>
   <si>
     <t>遥控器_Advanced_022</t>
-  </si>
-  <si>
-    <t>1.点击ORBIT功能；
-2.将飞机飞行至飞手至少8米以外的空中点击START,将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancle测试）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.屏幕出现对于ORBIT功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入ORBIT模式，遥控器左侧有对于ORBIT操作的简略介绍，屏幕下方出现BACK、START两个按钮；
-2.若想取消任务，点击BACK,飞机退出ORBIT功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项；
-3.若要继续任务，将飞机与飞手拉开距离，点击START后，将屏幕中弹窗的滑块滑到最右侧,飞行模式显示为ORBIT,飞机与飞手之间的距离就是半径，机头指飞手，飞机中央LED灯绿、紫慢闪；如飞机距离飞手距离过近，滑动滑块后，飞机自动拉远与飞手的距离，开始飞手环绕任务。
-如果开始时，滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle，弹窗关闭，可再点Start弹出对话框。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.左右打副翼摇杆；
@@ -1359,12 +1258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或副翼、升降舵任意打一个摇杆（不论方向），飞机继续正向完成未完成的环绕任务，遥控器的“播放键”变成“暂停键”，若继续拉住副翼或升降摇杆不松，飞机在继续环绕任务后，会根据摇杆方向正向/反向完成环绕任务，或增大/缩小环绕半径。暂停后，上/下推拉油门，飞机则在原地爬升/下降，但仍处于任务暂停状态；
-2.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出POI功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项；
-3.退出任务后，飞手重新获得飞机操控权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.向左/向右打副翼，杆量表示加速度，根据打杆时间积分，飞机就自动开始向左/向右以积分所得的恒定速率围绕飞手做刷锅运动；
 2.前/后推拉升降，飞机就缩小/增大与飞手之间的刷锅半径，上下推拉油门，飞机就爬升/降低高度，
 3.任何情况下Rudder对于飞机的操纵无效。
@@ -1424,14 +1317,6 @@
   <si>
     <t>1.点击JOUR功能；
 2.将飞机飞行至飞手至少10英尺以外的空中点击START或BACK.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.屏幕出现对于Jour功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入Jour模式，遥控器左侧有对于Jour操作的简略介绍，屏幕下方出现BACK、START两个按钮；
-2-1.想取消任务，点击BACK,遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项；
-2-2.若需继续任务，点击START后，将屏幕中弹窗的滑块滑到最右侧，飞机中央LED灯紫、绿慢闪，如云台俯仰不垂直于地面，飞机自动自旋，直至机头朝向与云台前向朝向相反，飞机沿着云台相机透镜的主光轴的反向延长线，远离所拍摄的景物飞去，向后飞30米后，飞机调转机头，指向云台前向，又自动按照原路线返回，回到START点后自动悬停，Jour状态自动退出；
-2-3.云台俯仰垂直地面时，飞机不会自旋，只会垂直爬升，然后再落回START点，Jour状态自动退出；
-2-4.如果开始时滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2048,100 +1933,6 @@
     <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
 2.遥控器、飞机有足够的GPS，且已全部完成校准，
 3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境。
-5.用Watch me 功能飞行飞机，
-云台Yaw可为任意模式，Pitch也可为任意模式，且俯仰调节开关需处于中立点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.CCC 航点已保存成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.飞机已经在执行CCC功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在执行CCC功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机、云台有足够的GPS，且已全部完成校准，
-3.遥控器与飞机绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.POI兴趣点已设置成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.飞机已经在执行POI功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在执行POI功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.飞机已经在ORBIT航线上自主飞行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在ORBIT航线上自主飞行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在执行ORBIT功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
 4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
 5.用单控在Angle mode下飞行飞机，
 6.飞机已经在执行JOUR任务。</t>
@@ -2293,16 +2084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.分别用一个控更改云台的各项参数，观测另一个控的变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.只要有一个控更改了视频分辨率、录音开关、相片风格、相片格式、白平衡、曝光补偿、光圈、快门、ISO等任何一个照相参数，另一个遥控器都会相应的跟随变化；
-1-2.一个控开启了录像，另一个控按下录制键也可以结束录像；
-1-3.不录像时两个控的快门都可以控制拍照。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安全与限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2627,10 +2408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.当available容量&gt;300M后，拍摄、录像功能正常，且正常存储于遥控器内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_云台_016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2922,10 +2699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.点击后云台TILT仰到最大值，云台ROLL轴左右摆动到最大值，随后TILT不断的向下俯，云台ROLL电机不停的左右缓慢摆动到最大值，若云台Tilt俯到最下端，校准还未结束，云台TILT又会开始向上仰，同时ROLL轴点击继续缓慢摇摆至最大值，此现象一直循环至云台校准完成，飞机发出BEEP一声提示声，云台ROLL和恢复水平，TILT平视前方，PAN对准机头前向。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.拨动云台PAN模式开关至最上,云台PAN为Follow模式，左右转动PAN CONTROL旋钮，左右转动机身；
 2.拨动云台PAN模式开关至中间，云台PAN为Follow可控模式，左右转动PAN CONTROL旋钮，左右转动机身；
 3.拨动云台PAN模式开关至最下端，云台PAN为全向模式，左右转动PAN CONTROL旋钮，左右转动机身。</t>
@@ -3037,10 +2810,6 @@
   </si>
   <si>
     <t>同版本暂时无法升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jun,7th,2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3914,12 +3683,253 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.当available容量&gt;300M后，拍摄、录像功能正常，且正常存储于遥控器内flightmode/media_data下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分别用一个遥控器更改云台的各项参数，观测另一个遥控器的变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.只要有一个遥控器更改了视频分辨率、录音开关、相片风格、相片格式、白平衡、曝光补偿、光圈、快门、ISO等任何一个照相参数，另一个遥控器都会相应的跟随变化；
+1-2.一个遥控器开启了录像，另一个遥控器按下录制键也可以结束录像；
+1-3.不录像时两个控的快门都可以控制拍照。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击后云台TILT仰到最大值，云台ROLL轴左右摆动到最大值，随后TILT不断的向下俯，云台ROLL电机不停的左右缓慢摆动到最大值，若云台Tilt俯到最下端，校准还未结束，云台TILT又会开始向上仰，同时ROLL轴点击继续缓慢摇摆至最大值，此现象一直循环至云台校准完成，飞机发出BEEP一声提示声，云台ROLL和TILT恢复水平，TILT平视前方，PAN对准机头前向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun,6th,2016</t>
+  </si>
+  <si>
+    <t>1.飞机绑定成功，模式开关切换至Follow Mode(Smart Mode) 后，机尾灯呈绿色慢闪。
+2.飞机未起飞，起落架开关没有功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将飞行模式开关切换至Follow Mode(Smart Mode)，检查机尾灯状态。
+2.尝试使用起落架开关升起、放下起落架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Angle模式起飞，随后切到Smart 模式,两手离开遥控器摇杆；
+2.使用起落架开关升起、放下起落架，
+3.在Follow飞行模式(Smart Mode)下，操纵遥控器的两个摇杆对飞机进行控制（俯仰前后，副翼左右，高度上下，顺时针自旋，逆时针自旋）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Angel模式起飞，
+2.点击遥控器屏幕右侧Follow/Watch me切换开关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在遥控器未与飞机连接或飞机与遥控器中任意一个卫星没定位，在Follow/Watch开关的位置上都显示NOT AVAILIABLE,点击后也没有反应；
+2.都定位后点击Follow/Watch me功能切换开关后，开关Watch的底色变成红色，原来Follow的底色由红色变成黑色，原来表示Follow的高亮箭头图标变暗，表示Watch的眼睛图标变成高亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun,6th,2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境。
+5.用Watch me 功能飞行飞机，
+云台Yaw可为任意模式，Pitch也可为任意模式，且俯仰调节开关需处于中立点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分别在执行JOUR、POI和Orbit功能时，
+2.将遥控器模式开关切换至Home，检查飞机状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将飞机飞至15米高，30米远外，
+2.在任意姿态、任意模式，任意功能下切换至Home模式，
+3.在飞机达到Home点上空之前操作起落架控制拨杆，
+4.在飞机到达Home点后，下降时开始操作操作起落架控制拨杆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏幕下方出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏幕出现对于CCC功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入CCC模式，遥控器左侧有对于CCC操作的简略介绍，屏幕下方出现BACK、RESET、-、+、LIST、SAVE、START五个按钮；
+2.点击CCC后，点击+，当前飞机悬停点的三维信息和机头朝向、云台航向和俯仰角度即可作为航点信息，并在遥控器左上方CCC预览窗口增加一个POINT点，
+3.点击“-”删除最后一个航点，
+4.点击RESET删除所有航点;
+5.执行CCC任务后，飞机所在的航点对应在遥控器上用红色底色显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击SAVE键，遥控器出现弹窗，编辑航线命名后，点击SAVE后，即可存储当前航线信息；
+2.点击LIST可看到已经保存的航线信息列表，并且可选中，重复执行已经保存的航线；
+3.点击BACK后，退出CCC功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.CCC 航点已保存成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击START，将屏幕中弹窗的滑块滑到最右侧，飞行模式栏显示飞行模式为CCC，遥控器下方选项开关变成EXIT、暂停和SAVE键，飞机机臂下方马达灯轮流闪烁N圈，直到所有航点信息传输完毕，马达灯停止绕圈闪烁，机身中央LED灯绿紫慢闪，飞机飞向第一个航点，到达后自动悬停。如果开始时滑动不到位，滑块恢复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框，
+2.向上推油门，通过杆量指定飞机加速度，通过与打杆时间积分设定飞机在航线上的飞行速度，飞机自动沿着航点连成的航线按指定速度飞行，直至飞行到最后的航点后保持悬停，
+3.向下收油门，飞机从最后一个航点按原路径返回，飞往第一个航点，
+4.在飞行的过程中，也可通过油门杆调整飞机的飞行速度，反向拨动油门杆减速，正向拨动油门杆加速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.飞机已经在执行CCC功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在执行CCC功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.飞机退出POI功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.如果滑动不到位，滑块恢复到最左侧，可再次滑动，如点击Cancel后弹窗关闭，可再点Start弹出对话框；
+2-2.将飞机拉远，离开CENTER点，点击START后，将屏幕中弹窗的滑块滑到最右侧,飞行模式显示为POI,主LED灯绿、紫慢闪，飞机与兴趣点之间的距离就是半径，如距离中心点距离过短，滑动滑块后，飞机自动和中心点拉远，机头指向兴趣点，并自动保持悬停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将飞机飞离兴趣点一段距离点击START,将屏幕上的弹窗滑块滑倒最右边（可穿插故意滑动不到位和点击Cancel测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将屏幕上的弹窗滑块滑倒最右边（可穿插故意滑动不到位和点击Cancel测试），
+2.向上推油门杆，
+3.向下拉油门杆，
+4.航线速度与方向控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或副翼、升降舵任意打一个键（不论方向），遥控器的“播放键”变成“暂停键”，飞机继续正向完成未完成的环绕任务，若继续拉住副翼或升降摇杆不松，飞机在继续环绕任务后，会根据摇杆方向正向/反向完成环绕任务，或增大/缩小环绕半径。
+2.暂停后，上/下推拉油门，飞机则在原地爬升/下降，但仍处于任务暂停状态。
+3.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出POI功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；飞手重新获得飞机操控权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机、云台有足够的GPS，且已全部完成校准，
+3.遥控器与飞机绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.POI兴趣点已设置成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.飞机已经在执行POI功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在执行POI功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击ORBIT功能；
+2.将飞机飞行至飞手至少8米以外的空中点击START,将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancel测试）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏幕出现对于ORBIT功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入ORBIT模式，遥控器左侧有对于ORBIT操作的简略介绍，屏幕下方出现BACK、START两个按钮；
+2.若想取消任务，点击BACK,飞机退出ORBIT功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；
+3.若要继续任务，将飞机与飞手拉开距离，点击START后，将屏幕中弹窗的滑块滑到最右侧,飞行模式显示为ORBIT,飞机与飞手之间的距离就是半径，机头指向飞手，飞机中央LED灯绿、紫慢闪；如飞机距离飞手距离过近，滑动滑块后，飞机自动拉远与飞手的距离，开始飞手环绕任务。
+如果开始时，滑动不到位，滑块恢复到最左侧，可再次滑动，如点击Cancel，弹窗关闭，可再点Start弹出对话框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.飞机已经在ORBIT航线上自主飞行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在ORBIT航线上自主飞行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或副翼、升降舵任意打一个摇杆（不论方向），飞机继续正向完成未完成的环绕任务，遥控器的“播放键”变成“暂停键”，若继续拉住副翼或升降摇杆不松，飞机在继续环绕任务后，会根据摇杆方向正向/反向完成环绕任务，或增大/缩小环绕半径。暂停后，上/下推拉油门，飞机则在原地爬升/下降，但仍处于任务暂停状态；
+2.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出ORBIT功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；
+3.退出任务后，飞手重新获得飞机操控权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在执行ORBIT功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏幕出现对于Jour功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入Jour模式，遥控器左侧有对于Jour操作的简略介绍，屏幕下方出现BACK、START两个按钮；
+2-1.想取消任务，点击BACK,遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；
+2-2.若需继续任务，点击START后，将屏幕中弹窗的滑块滑到最右侧，飞机中央LED灯紫、绿慢闪，如云台俯仰不垂直于地面，飞机自动自旋，直至机头朝向与云台前向朝向相反，飞机沿着云台相机透镜的主光轴的反向延长线，远离所拍摄的景物飞去，向后飞30米后，飞机调转机头，指向云台前向，又自动按照原路线返回，回到START点后自动悬停，Jour状态自动退出；
+2-3.云台俯仰垂直地面时，飞机不会自旋，只会垂直爬升，然后再落回START点，Jour状态自动退出；
+2-4.如果开始时滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4065,13 +4075,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4287,7 +4290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,9 +4345,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4378,7 +4378,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4782,7 +4782,7 @@
   <dimension ref="D2:I7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="D5:H5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4794,14 +4794,14 @@
     <row r="2" spans="4:9" ht="15.75" customHeight="1"/>
     <row r="3" spans="4:9" ht="19.5" customHeight="1"/>
     <row r="4" spans="4:9" ht="21" customHeight="1">
-      <c r="D4" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="D4" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" s="5" t="s">
@@ -4887,33 +4887,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4921,19 +4921,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="C3" s="15">
         <v>42480</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4941,19 +4941,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="C4" s="15">
         <v>42496</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4961,19 +4961,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="C5" s="15">
         <v>42509</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>537</v>
+        <v>501</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4981,19 +4981,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="C6" s="15">
         <v>42569</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5055,91 +5055,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
-      <c r="A1" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="33">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="22">
+      <c r="B2" s="33"/>
+      <c r="C2" s="21">
         <v>42514</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="E3" s="36"/>
+        <v>507</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="E4" s="36"/>
+        <v>508</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="33">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="22">
+      <c r="B5" s="33"/>
+      <c r="C5" s="21">
         <v>42523</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>591</v>
+      <c r="E5" s="22" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>544</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="E6" s="36"/>
+      <c r="A6" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="E7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="E7" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="66.75" customHeight="1"/>
     <row r="10" spans="1:5" ht="85.5" customHeight="1"/>
@@ -5163,13 +5163,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5189,45 +5188,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>382</v>
+      <c r="B1" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5246,50 +5245,50 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" ht="66">
-      <c r="A3" s="45"/>
-      <c r="B3" s="19" t="s">
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" s="24" customFormat="1" ht="66">
+      <c r="A3" s="44"/>
+      <c r="B3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>623</v>
+      <c r="E3" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="H3" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="33">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -5300,28 +5299,28 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="26" t="s">
-        <v>593</v>
+      <c r="L4" s="25" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="49.5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5337,23 +5336,23 @@
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -5370,22 +5369,22 @@
         <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="26" t="s">
-        <v>594</v>
+      <c r="L6" s="25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33">
-      <c r="A7" s="45"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -5399,23 +5398,23 @@
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="49.5">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -5426,65 +5425,65 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="26" t="s">
-        <v>594</v>
+      <c r="L8" s="25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="82.5">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>608</v>
+      <c r="H9" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="82.5">
-      <c r="A10" s="45"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -5493,30 +5492,30 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="26" t="s">
-        <v>594</v>
+      <c r="L10" s="25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="82.5">
-      <c r="A11" s="45"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="3" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -5528,55 +5527,55 @@
         <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="82.5">
-      <c r="A12" s="45"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>608</v>
+      <c r="H12" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="82.5">
-      <c r="A13" s="45"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -5585,30 +5584,30 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="26" t="s">
-        <v>596</v>
+      <c r="L13" s="25" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.5">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -5620,20 +5619,20 @@
         <v>94</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5652,20 +5651,20 @@
         <v>38</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="33">
-      <c r="A16" s="45"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -5682,22 +5681,22 @@
         <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="26" t="s">
-        <v>596</v>
+      <c r="L16" s="25" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49.5">
-      <c r="A17" s="45"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
@@ -5714,20 +5713,20 @@
         <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="45"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
@@ -5744,20 +5743,20 @@
         <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="82.5">
-      <c r="A19" s="45"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5774,22 +5773,22 @@
         <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="66">
-      <c r="A20" s="46"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
@@ -5806,22 +5805,22 @@
         <v>65</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>608</v>
+        <v>504</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5837,23 +5836,23 @@
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>608</v>
+      <c r="H21" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="66">
-      <c r="A22" s="45"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -5867,34 +5866,34 @@
         <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>608</v>
+      <c r="H22" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="82.5">
-      <c r="A23" s="45"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>67</v>
@@ -5902,18 +5901,18 @@
       <c r="G23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>608</v>
+      <c r="H23" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="49.5">
-      <c r="A24" s="45"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
@@ -5932,53 +5931,53 @@
       <c r="G24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>608</v>
+      <c r="H24" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="165">
-      <c r="A25" s="45"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>608</v>
+      <c r="H25" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="82.5">
-      <c r="A26" s="45"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -5987,85 +5986,85 @@
         <v>70</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>608</v>
+      <c r="H26" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="82.5">
-      <c r="A27" s="45"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>608</v>
+      <c r="H27" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="82.5">
-      <c r="A28" s="45"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>591</v>
+        <v>620</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="99">
-      <c r="A29" s="45"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -6082,20 +6081,20 @@
       <c r="G29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>608</v>
+      <c r="H29" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="82.5">
-      <c r="A30" s="45"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -6112,20 +6111,20 @@
       <c r="G30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="J30" s="20"/>
+      <c r="H30" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" s="19"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="66">
-      <c r="A31" s="45"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
@@ -6137,25 +6136,25 @@
         <v>77</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>608</v>
+      <c r="H31" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="66">
-      <c r="A32" s="45"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -6164,28 +6163,28 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>608</v>
+      <c r="H32" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="132">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
@@ -6194,61 +6193,61 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>591</v>
+      <c r="H33" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="82.5">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>591</v>
+      <c r="H34" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="66">
-      <c r="A35" s="45"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -6262,20 +6261,20 @@
       <c r="G35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="J35" s="20"/>
+      <c r="H35" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J35" s="19"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="165">
-      <c r="A36" s="45"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>42</v>
@@ -6286,26 +6285,26 @@
       <c r="E36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="J36" s="20"/>
+      <c r="H36" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J36" s="19"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="49.5">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
@@ -6314,28 +6313,28 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>608</v>
+      <c r="H37" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="82.5">
-      <c r="A38" s="45"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="3" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>86</v>
@@ -6344,28 +6343,28 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>608</v>
+      <c r="H38" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="99">
-      <c r="A39" s="45"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="3" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>90</v>
@@ -6374,28 +6373,28 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>608</v>
+      <c r="H39" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="66">
-      <c r="A40" s="45"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="3" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>88</v>
@@ -6407,25 +6406,25 @@
         <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>608</v>
+      <c r="H40" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="66">
-      <c r="A41" s="45"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="3" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
@@ -6437,25 +6436,25 @@
         <v>89</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>608</v>
+      <c r="H41" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" ht="99">
-      <c r="A42" s="45"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="3" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -6472,20 +6471,20 @@
       <c r="G42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>608</v>
+      <c r="H42" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" ht="99">
-      <c r="A43" s="45"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="3" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -6502,20 +6501,20 @@
       <c r="G43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>608</v>
+      <c r="H43" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="82.5">
-      <c r="A44" s="45"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="3" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>91</v>
@@ -6524,28 +6523,28 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>573</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>608</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="45"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="3" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>124</v>
@@ -6557,25 +6556,25 @@
         <v>125</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>608</v>
+      <c r="H45" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="132">
-      <c r="A46" s="45"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="3" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>92</v>
@@ -6584,28 +6583,28 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>608</v>
+      <c r="H46" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="99">
-      <c r="A47" s="45"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="3" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>92</v>
@@ -6614,30 +6613,30 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>608</v>
+      <c r="H47" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="82.5">
-      <c r="A48" s="45"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="3" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>123</v>
@@ -6646,31 +6645,31 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>591</v>
+      <c r="H48" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="66">
-      <c r="A49" s="45"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
@@ -6679,28 +6678,28 @@
         <v>98</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>608</v>
+      <c r="H49" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="66">
-      <c r="A50" s="45"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="3" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -6709,25 +6708,25 @@
         <v>98</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>608</v>
+      <c r="H50" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="49.5">
-      <c r="A51" s="45"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="3" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>96</v>
@@ -6736,28 +6735,28 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>608</v>
+      <c r="H51" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="49.5">
-      <c r="A52" s="45"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="3" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>95</v>
@@ -6769,25 +6768,25 @@
         <v>97</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>608</v>
+      <c r="H52" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="49.5">
-      <c r="A53" s="45"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="3" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>95</v>
@@ -6799,25 +6798,25 @@
         <v>99</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>591</v>
+      <c r="H53" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" ht="66">
-      <c r="A54" s="45"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="3" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>95</v>
@@ -6829,25 +6828,25 @@
         <v>100</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>591</v>
+      <c r="H54" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="66">
-      <c r="A55" s="45"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="3" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>95</v>
@@ -6859,25 +6858,25 @@
         <v>101</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>591</v>
+      <c r="H55" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="82.5">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="3" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>102</v>
@@ -6886,28 +6885,28 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F56" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="J56" s="20"/>
+      <c r="H56" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="J56" s="19"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="49.5">
-      <c r="A57" s="45"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="3" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
@@ -6924,20 +6923,20 @@
       <c r="G57" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I57" s="27" t="s">
-        <v>591</v>
+      <c r="H57" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" ht="99">
-      <c r="A58" s="45"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="3" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
@@ -6954,20 +6953,20 @@
       <c r="G58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H58" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>591</v>
+      <c r="H58" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" ht="99">
-      <c r="A59" s="45"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="3" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
@@ -6984,20 +6983,20 @@
       <c r="G59" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>591</v>
+      <c r="H59" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" ht="66">
-      <c r="A60" s="45"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="3" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>10</v>
@@ -7009,25 +7008,25 @@
         <v>110</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>591</v>
+      <c r="H60" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="49.5">
-      <c r="A61" s="45"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="3" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>10</v>
@@ -7038,26 +7037,26 @@
       <c r="E61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="18" t="s">
         <v>114</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="J61" s="20"/>
+      <c r="H61" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="J61" s="19"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" ht="66">
-      <c r="A62" s="45"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="3" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -7074,20 +7073,20 @@
       <c r="G62" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>591</v>
+      <c r="H62" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="82.5">
-      <c r="A63" s="45"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="3" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
@@ -7104,20 +7103,20 @@
       <c r="G63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H63" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>591</v>
+      <c r="H63" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="82.5">
-      <c r="A64" s="46"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="3" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>10</v>
@@ -7134,185 +7133,203 @@
       <c r="G64" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H64" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>591</v>
+      <c r="H64" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="132">
-      <c r="A65" s="44" t="s">
-        <v>341</v>
+      <c r="A65" s="43" t="s">
+        <v>321</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I65" s="27"/>
+      <c r="H65" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I65" s="26"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" ht="99">
-      <c r="A66" s="45"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="3" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>591</v>
+      <c r="H66" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="99" hidden="1" customHeight="1">
-      <c r="A67" s="45"/>
+    <row r="67" spans="1:12" ht="99" customHeight="1">
+      <c r="A67" s="44"/>
       <c r="B67" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="82.5" hidden="1" customHeight="1">
-      <c r="A68" s="45"/>
+    <row r="68" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A68" s="44"/>
       <c r="B68" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
+        <v>375</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A69" s="45"/>
+    <row r="69" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A69" s="44"/>
       <c r="B69" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+        <v>377</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="99" hidden="1" customHeight="1">
-      <c r="A70" s="45"/>
+    <row r="70" spans="1:12" ht="99" customHeight="1">
+      <c r="A70" s="44"/>
       <c r="B70" s="3" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+        <v>700</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A71" s="45"/>
+    <row r="71" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A71" s="44"/>
       <c r="B71" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>130</v>
@@ -7323,20 +7340,26 @@
       <c r="F71" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="G71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A72" s="45"/>
+    <row r="72" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A72" s="44"/>
       <c r="B72" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>130</v>
@@ -7347,1055 +7370,1283 @@
       <c r="F72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="G72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A73" s="45"/>
+    <row r="73" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A73" s="44"/>
       <c r="B73" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="G73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A74" s="45"/>
+    <row r="74" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A74" s="44"/>
       <c r="B74" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>144</v>
+        <v>704</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+        <v>703</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A75" s="45"/>
+    <row r="75" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A75" s="44"/>
       <c r="B75" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>147</v>
+        <v>705</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="198" hidden="1" customHeight="1">
-      <c r="A76" s="45"/>
+    <row r="76" spans="1:12" ht="198" customHeight="1">
+      <c r="A76" s="44"/>
       <c r="B76" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A77" s="45"/>
+    <row r="77" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A77" s="44"/>
       <c r="B77" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A78" s="45"/>
+    <row r="78" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A78" s="44"/>
       <c r="B78" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>160</v>
+        <v>706</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+        <v>707</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A79" s="45"/>
+    <row r="79" spans="1:12" ht="132" customHeight="1">
+      <c r="A79" s="44"/>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="181.5" hidden="1" customHeight="1">
-      <c r="A80" s="45"/>
+    <row r="80" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A80" s="44"/>
       <c r="B80" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>402</v>
+        <v>709</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="363" hidden="1" customHeight="1">
-      <c r="A81" s="45"/>
+    <row r="81" spans="1:12" ht="363" customHeight="1">
+      <c r="A81" s="44"/>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>402</v>
+        <v>709</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="165" hidden="1" customHeight="1">
-      <c r="A82" s="45"/>
+    <row r="82" spans="1:12" ht="165" customHeight="1">
+      <c r="A82" s="44"/>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A83" s="45"/>
+    <row r="83" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A83" s="44"/>
       <c r="B83" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A84" s="45"/>
+    <row r="84" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A84" s="44"/>
       <c r="B84" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A85" s="45"/>
+    <row r="85" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A85" s="44"/>
       <c r="B85" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A86" s="45"/>
+    <row r="86" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A86" s="44"/>
       <c r="B86" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>176</v>
+        <v>710</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A87" s="45"/>
+    <row r="87" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A87" s="44"/>
       <c r="B87" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A88" s="45"/>
+    <row r="88" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A88" s="44"/>
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A89" s="45"/>
+    <row r="89" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A89" s="44"/>
       <c r="B89" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A90" s="45"/>
+    <row r="90" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A90" s="44"/>
       <c r="B90" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A91" s="45"/>
+    <row r="91" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A91" s="44"/>
       <c r="B91" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A92" s="45"/>
+    <row r="92" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A92" s="44"/>
       <c r="B92" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>192</v>
+        <v>711</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A93" s="45"/>
+    <row r="93" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A93" s="44"/>
       <c r="B93" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+        <v>194</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A94" s="45"/>
+    <row r="94" spans="1:12" ht="132" customHeight="1">
+      <c r="A94" s="44"/>
       <c r="B94" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+        <v>713</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="181.5" hidden="1" customHeight="1">
-      <c r="A95" s="45"/>
+    <row r="95" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A95" s="44"/>
       <c r="B95" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+        <v>714</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A96" s="45"/>
+    <row r="96" spans="1:12" ht="132" customHeight="1">
+      <c r="A96" s="44"/>
       <c r="B96" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+        <v>715</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="231" hidden="1" customHeight="1">
-      <c r="A97" s="45"/>
+    <row r="97" spans="1:12" ht="231" customHeight="1">
+      <c r="A97" s="44"/>
       <c r="B97" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>404</v>
+        <v>716</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>205</v>
+        <v>723</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A98" s="45"/>
+    <row r="98" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A98" s="44"/>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>405</v>
+        <v>718</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="181.5" hidden="1" customHeight="1">
-      <c r="A99" s="45"/>
+    <row r="99" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A99" s="44"/>
       <c r="B99" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>406</v>
+        <v>719</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A100" s="45"/>
+    <row r="100" spans="1:12" ht="132" customHeight="1">
+      <c r="A100" s="44"/>
       <c r="B100" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>406</v>
+        <v>719</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A101" s="45"/>
+    <row r="101" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A101" s="44"/>
       <c r="B101" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="G101" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A102" s="45"/>
+    <row r="102" spans="1:12" ht="132" customHeight="1">
+      <c r="A102" s="44"/>
       <c r="B102" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I102" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A103" s="45"/>
+    <row r="103" spans="1:12" ht="132" customHeight="1">
+      <c r="A103" s="44"/>
       <c r="B103" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+        <v>720</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A104" s="45"/>
+    <row r="104" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A104" s="44"/>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>407</v>
+        <v>725</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>233</v>
+        <v>722</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+        <v>721</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A105" s="45"/>
+    <row r="105" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A105" s="44"/>
       <c r="B105" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>408</v>
+        <v>726</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="181.5" hidden="1" customHeight="1">
-      <c r="A106" s="45"/>
+    <row r="106" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A106" s="44"/>
       <c r="B106" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>408</v>
+        <v>726</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
+        <v>724</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I106" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A107" s="45"/>
+    <row r="107" spans="1:12" ht="132" customHeight="1">
+      <c r="A107" s="44"/>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>409</v>
+        <v>727</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I107" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A108" s="45"/>
+    <row r="108" spans="1:12" ht="132" customHeight="1">
+      <c r="A108" s="44"/>
       <c r="B108" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>409</v>
+        <v>727</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A109" s="45"/>
+    <row r="109" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A109" s="44"/>
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="G109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="198" hidden="1" customHeight="1">
-      <c r="A110" s="45"/>
+    <row r="110" spans="1:12" ht="198" customHeight="1">
+      <c r="A110" s="44"/>
       <c r="B110" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>248</v>
+        <v>728</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
+        <v>729</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A111" s="45"/>
+    <row r="111" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A111" s="44"/>
       <c r="B111" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>410</v>
+        <v>730</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="181.5" hidden="1" customHeight="1">
-      <c r="A112" s="45"/>
+    <row r="112" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A112" s="44"/>
       <c r="B112" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>410</v>
+        <v>730</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+        <v>732</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A113" s="45"/>
+    <row r="113" spans="1:12" ht="132" customHeight="1">
+      <c r="A113" s="44"/>
       <c r="B113" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>411</v>
+        <v>731</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I113" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A114" s="45"/>
+    <row r="114" spans="1:12" ht="132" customHeight="1">
+      <c r="A114" s="44"/>
       <c r="B114" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I114" s="26" t="s">
+        <v>556</v>
+      </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A115" s="45"/>
+    <row r="115" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A115" s="44"/>
       <c r="B115" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="G115" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="264" hidden="1" customHeight="1">
-      <c r="A116" s="45"/>
+    <row r="116" spans="1:12" ht="264" customHeight="1">
+      <c r="A116" s="44"/>
       <c r="B116" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>270</v>
+        <v>734</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -8404,22 +8655,22 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A117" s="45"/>
+    <row r="117" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A117" s="44"/>
       <c r="B117" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -8428,22 +8679,22 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A118" s="45"/>
+    <row r="118" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A118" s="44"/>
       <c r="B118" s="3" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -8452,22 +8703,22 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A119" s="45"/>
+    <row r="119" spans="1:12" ht="132" customHeight="1">
+      <c r="A119" s="44"/>
       <c r="B119" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -8476,22 +8727,22 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="132" hidden="1" customHeight="1">
-      <c r="A120" s="45"/>
+    <row r="120" spans="1:12" ht="132" customHeight="1">
+      <c r="A120" s="44"/>
       <c r="B120" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -8500,19 +8751,19 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="115.5" hidden="1" customHeight="1">
-      <c r="A121" s="45"/>
+    <row r="121" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A121" s="44"/>
       <c r="B121" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -8522,22 +8773,22 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A122" s="45"/>
+    <row r="122" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A122" s="44"/>
       <c r="B122" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -8546,22 +8797,22 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="165" hidden="1" customHeight="1">
-      <c r="A123" s="45"/>
+    <row r="123" spans="1:12" ht="165" customHeight="1">
+      <c r="A123" s="44"/>
       <c r="B123" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -8570,22 +8821,22 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A124" s="45"/>
+    <row r="124" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A124" s="44"/>
       <c r="B124" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -8594,22 +8845,22 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="165" hidden="1" customHeight="1">
-      <c r="A125" s="45"/>
+    <row r="125" spans="1:12" ht="165" customHeight="1">
+      <c r="A125" s="44"/>
       <c r="B125" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -8618,22 +8869,22 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="165" hidden="1" customHeight="1">
-      <c r="A126" s="45"/>
+    <row r="126" spans="1:12" ht="165" customHeight="1">
+      <c r="A126" s="44"/>
       <c r="B126" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -8642,22 +8893,22 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="148.5" hidden="1" customHeight="1">
-      <c r="A127" s="45"/>
+    <row r="127" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A127" s="44"/>
       <c r="B127" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -8666,22 +8917,22 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="165" hidden="1" customHeight="1">
-      <c r="A128" s="45"/>
+    <row r="128" spans="1:12" ht="165" customHeight="1">
+      <c r="A128" s="44"/>
       <c r="B128" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -8690,22 +8941,22 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="82.5" hidden="1" customHeight="1">
-      <c r="A129" s="45"/>
+    <row r="129" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A129" s="44"/>
       <c r="B129" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -8715,27 +8966,27 @@
       <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12" ht="66">
-      <c r="A130" s="46"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="3" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H130" s="27" t="s">
-        <v>617</v>
+      <c r="H130" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -8743,53 +8994,53 @@
       <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12" ht="115.5">
-      <c r="A131" s="44" t="s">
-        <v>300</v>
+      <c r="A131" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I131" s="27" t="s">
-        <v>591</v>
+      <c r="H131" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I131" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="115.5" hidden="1">
-      <c r="A132" s="45"/>
+    <row r="132" spans="1:12" ht="115.5">
+      <c r="A132" s="44"/>
       <c r="B132" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -8798,22 +9049,22 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="115.5" hidden="1">
-      <c r="A133" s="45"/>
+    <row r="133" spans="1:12" ht="115.5">
+      <c r="A133" s="44"/>
       <c r="B133" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -8822,22 +9073,22 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12" ht="115.5" hidden="1">
-      <c r="A134" s="45"/>
+    <row r="134" spans="1:12" ht="115.5">
+      <c r="A134" s="44"/>
       <c r="B134" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -8846,22 +9097,22 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" ht="115.5" hidden="1">
-      <c r="A135" s="45"/>
+    <row r="135" spans="1:12" ht="115.5">
+      <c r="A135" s="44"/>
       <c r="B135" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -8870,22 +9121,22 @@
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" ht="115.5" hidden="1">
-      <c r="A136" s="45"/>
+    <row r="136" spans="1:12" ht="115.5">
+      <c r="A136" s="44"/>
       <c r="B136" s="3" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -8894,22 +9145,22 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" ht="115.5" hidden="1">
-      <c r="A137" s="45"/>
+    <row r="137" spans="1:12" ht="115.5">
+      <c r="A137" s="44"/>
       <c r="B137" s="3" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -8919,53 +9170,53 @@
       <c r="L137" s="3"/>
     </row>
     <row r="138" spans="1:12" ht="115.5">
-      <c r="A138" s="44" t="s">
-        <v>440</v>
+      <c r="A138" s="43" t="s">
+        <v>407</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H138" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I138" s="27" t="s">
-        <v>591</v>
+      <c r="H138" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:12" ht="115.5" hidden="1">
-      <c r="A139" s="45"/>
+    <row r="139" spans="1:12" ht="115.5">
+      <c r="A139" s="44"/>
       <c r="B139" s="3" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -8974,22 +9225,22 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="115.5" hidden="1">
-      <c r="A140" s="45"/>
+    <row r="140" spans="1:12" ht="115.5">
+      <c r="A140" s="44"/>
       <c r="B140" s="3" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -8998,22 +9249,22 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:12" ht="115.5" hidden="1">
-      <c r="A141" s="45"/>
+    <row r="141" spans="1:12" ht="115.5">
+      <c r="A141" s="44"/>
       <c r="B141" s="3" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -9022,22 +9273,22 @@
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:12" ht="115.5" hidden="1">
-      <c r="A142" s="45"/>
+    <row r="142" spans="1:12" ht="115.5">
+      <c r="A142" s="44"/>
       <c r="B142" s="3" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -9046,22 +9297,22 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:12" ht="115.5" hidden="1">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:12" ht="115.5">
+      <c r="A143" s="44"/>
       <c r="B143" s="3" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -9070,22 +9321,22 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" ht="115.5" hidden="1">
-      <c r="A144" s="45"/>
+    <row r="144" spans="1:12" ht="115.5">
+      <c r="A144" s="44"/>
       <c r="B144" s="3" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -9094,22 +9345,22 @@
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" ht="115.5" hidden="1">
-      <c r="A145" s="45"/>
+    <row r="145" spans="1:12" ht="115.5">
+      <c r="A145" s="44"/>
       <c r="B145" s="3" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -9118,24 +9369,24 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" ht="132" hidden="1">
-      <c r="A146" s="44" t="s">
-        <v>318</v>
+    <row r="146" spans="1:12" ht="132">
+      <c r="A146" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -9144,22 +9395,22 @@
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" ht="132" hidden="1">
-      <c r="A147" s="45"/>
+    <row r="147" spans="1:12" ht="132">
+      <c r="A147" s="44"/>
       <c r="B147" s="3" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -9168,22 +9419,22 @@
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="132" hidden="1">
-      <c r="A148" s="45"/>
+    <row r="148" spans="1:12" ht="132">
+      <c r="A148" s="44"/>
       <c r="B148" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -9192,22 +9443,22 @@
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" ht="132" hidden="1">
-      <c r="A149" s="45"/>
+    <row r="149" spans="1:12" ht="132">
+      <c r="A149" s="44"/>
       <c r="B149" s="3" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -9216,22 +9467,22 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12" ht="132" hidden="1">
-      <c r="A150" s="45"/>
+    <row r="150" spans="1:12" ht="132">
+      <c r="A150" s="44"/>
       <c r="B150" s="3" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -9240,22 +9491,22 @@
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" ht="132" hidden="1">
-      <c r="A151" s="46"/>
+    <row r="151" spans="1:12" ht="132">
+      <c r="A151" s="45"/>
       <c r="B151" s="3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -9264,24 +9515,24 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" spans="1:12" ht="115.5" hidden="1">
-      <c r="A152" s="44" t="s">
-        <v>342</v>
+    <row r="152" spans="1:12" ht="115.5">
+      <c r="A152" s="43" t="s">
+        <v>322</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -9290,22 +9541,22 @@
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="115.5" hidden="1">
-      <c r="A153" s="45"/>
+    <row r="153" spans="1:12" ht="115.5">
+      <c r="A153" s="44"/>
       <c r="B153" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -9314,22 +9565,22 @@
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:12" ht="115.5" hidden="1">
-      <c r="A154" s="45"/>
+    <row r="154" spans="1:12" ht="115.5">
+      <c r="A154" s="44"/>
       <c r="B154" s="3" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -9338,22 +9589,22 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" ht="115.5" hidden="1">
-      <c r="A155" s="45"/>
+    <row r="155" spans="1:12" ht="115.5">
+      <c r="A155" s="44"/>
       <c r="B155" s="3" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -9362,22 +9613,22 @@
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:12" ht="148.5" hidden="1">
-      <c r="A156" s="46"/>
+    <row r="156" spans="1:12" ht="148.5">
+      <c r="A156" s="45"/>
       <c r="B156" s="3" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -9387,143 +9638,143 @@
       <c r="L156" s="3"/>
     </row>
     <row r="157" spans="1:12" ht="66">
-      <c r="A157" s="44" t="s">
-        <v>358</v>
+      <c r="A157" s="43" t="s">
+        <v>338</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H157" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I157" s="27" t="s">
-        <v>591</v>
+      <c r="H157" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
     </row>
     <row r="158" spans="1:12" ht="66">
-      <c r="A158" s="45"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H158" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I158" s="27" t="s">
-        <v>591</v>
+      <c r="H158" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:12" ht="66">
-      <c r="A159" s="45"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H159" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I159" s="27" t="s">
-        <v>591</v>
+      <c r="H159" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12" ht="66">
-      <c r="A160" s="45"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H160" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="I160" s="27" t="s">
-        <v>591</v>
+      <c r="H160" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I160" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:12" ht="82.5" hidden="1">
-      <c r="A161" s="45"/>
+    <row r="161" spans="1:12" ht="82.5">
+      <c r="A161" s="44"/>
       <c r="B161" s="3" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -9532,22 +9783,22 @@
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" spans="1:12" ht="82.5" hidden="1">
-      <c r="A162" s="46"/>
+    <row r="162" spans="1:12" ht="82.5">
+      <c r="A162" s="45"/>
       <c r="B162" s="3" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -9557,662 +9808,662 @@
       <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:12" ht="99">
-      <c r="A163" s="44" t="s">
-        <v>291</v>
+      <c r="A163" s="43" t="s">
+        <v>271</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H163" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I163" s="27" t="s">
-        <v>591</v>
+      <c r="H163" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
     </row>
     <row r="164" spans="1:12" ht="148.5">
-      <c r="A164" s="45"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H164" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I164" s="27" t="s">
-        <v>591</v>
+      <c r="H164" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
     </row>
     <row r="165" spans="1:12" ht="99">
-      <c r="A165" s="45"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H165" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I165" s="27" t="s">
-        <v>591</v>
+      <c r="H165" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:12" ht="148.5">
-      <c r="A166" s="45"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="3" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H166" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I166" s="27" t="s">
-        <v>591</v>
+      <c r="H166" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I166" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:12" ht="82.5">
-      <c r="A167" s="45"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="3" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H167" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I167" s="27" t="s">
-        <v>591</v>
+      <c r="H167" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:12" ht="66">
-      <c r="A168" s="45"/>
-      <c r="B168" s="19" t="s">
-        <v>500</v>
+      <c r="A168" s="44"/>
+      <c r="B168" s="18" t="s">
+        <v>467</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H168" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I168" s="27" t="s">
-        <v>591</v>
+      <c r="H168" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I168" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:12" ht="66">
-      <c r="A169" s="45"/>
-      <c r="B169" s="19" t="s">
-        <v>501</v>
+      <c r="A169" s="44"/>
+      <c r="B169" s="18" t="s">
+        <v>468</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H169" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I169" s="27" t="s">
-        <v>591</v>
+      <c r="H169" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I169" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:12" ht="66">
-      <c r="A170" s="45"/>
-      <c r="B170" s="19" t="s">
-        <v>427</v>
+      <c r="A170" s="44"/>
+      <c r="B170" s="18" t="s">
+        <v>396</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H170" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I170" s="27" t="s">
-        <v>591</v>
+      <c r="H170" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I170" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
     </row>
     <row r="171" spans="1:12" ht="99">
-      <c r="A171" s="45"/>
-      <c r="B171" s="19" t="s">
-        <v>431</v>
+      <c r="A171" s="44"/>
+      <c r="B171" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H171" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I171" s="27" t="s">
-        <v>591</v>
+      <c r="H171" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I171" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
     </row>
     <row r="172" spans="1:12" ht="66">
-      <c r="A172" s="45"/>
-      <c r="B172" s="19" t="s">
-        <v>434</v>
+      <c r="A172" s="44"/>
+      <c r="B172" s="18" t="s">
+        <v>403</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H172" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I172" s="27" t="s">
-        <v>591</v>
+      <c r="H172" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:12" ht="66">
-      <c r="A173" s="45"/>
-      <c r="B173" s="19" t="s">
-        <v>435</v>
+      <c r="A173" s="44"/>
+      <c r="B173" s="18" t="s">
+        <v>404</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H173" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I173" s="27" t="s">
-        <v>591</v>
+      <c r="H173" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I173" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:12" ht="66">
-      <c r="A174" s="45"/>
-      <c r="B174" s="19" t="s">
-        <v>436</v>
+      <c r="A174" s="44"/>
+      <c r="B174" s="18" t="s">
+        <v>405</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H174" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I174" s="27" t="s">
-        <v>591</v>
+      <c r="H174" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I174" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12" ht="82.5">
-      <c r="A175" s="45"/>
-      <c r="B175" s="19" t="s">
-        <v>502</v>
+      <c r="A175" s="44"/>
+      <c r="B175" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H175" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I175" s="27" t="s">
-        <v>591</v>
+      <c r="H175" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I175" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:12" ht="82.5">
-      <c r="A176" s="45"/>
-      <c r="B176" s="19" t="s">
-        <v>503</v>
+      <c r="A176" s="44"/>
+      <c r="B176" s="18" t="s">
+        <v>470</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F176" s="30" t="s">
-        <v>517</v>
+        <v>459</v>
+      </c>
+      <c r="F176" s="29" t="s">
+        <v>484</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H176" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I176" s="27" t="s">
-        <v>591</v>
+      <c r="H176" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
     </row>
     <row r="177" spans="1:12" ht="82.5">
-      <c r="A177" s="45"/>
-      <c r="B177" s="19" t="s">
-        <v>504</v>
+      <c r="A177" s="44"/>
+      <c r="B177" s="18" t="s">
+        <v>471</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>519</v>
+        <v>697</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H177" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I177" s="27" t="s">
-        <v>591</v>
+      <c r="H177" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I177" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
     </row>
     <row r="178" spans="1:12" ht="99">
-      <c r="A178" s="45"/>
+      <c r="A178" s="44"/>
       <c r="B178" s="3" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H178" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I178" s="27" t="s">
-        <v>591</v>
+      <c r="H178" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I178" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
     </row>
     <row r="179" spans="1:12" ht="66">
-      <c r="A179" s="45"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="3" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H179" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I179" s="27" t="s">
-        <v>591</v>
+      <c r="H179" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I179" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
     </row>
     <row r="180" spans="1:12" ht="66">
-      <c r="A180" s="45"/>
+      <c r="A180" s="44"/>
       <c r="B180" s="3" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H180" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I180" s="27" t="s">
-        <v>591</v>
+      <c r="H180" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
     </row>
     <row r="181" spans="1:12" ht="66">
-      <c r="A181" s="45"/>
+      <c r="A181" s="44"/>
       <c r="B181" s="3" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H181" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I181" s="27" t="s">
-        <v>591</v>
+      <c r="H181" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I181" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
     <row r="182" spans="1:12" ht="132">
-      <c r="A182" s="45"/>
+      <c r="A182" s="44"/>
       <c r="B182" s="3" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H182" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I182" s="27" t="s">
-        <v>591</v>
+      <c r="H182" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I182" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" ht="82.5">
-      <c r="A183" s="45"/>
+    <row r="183" spans="1:12" ht="99">
+      <c r="A183" s="44"/>
       <c r="B183" s="3" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>438</v>
+        <v>698</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>439</v>
+        <v>699</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H183" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I183" s="27" t="s">
-        <v>591</v>
+      <c r="H183" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I183" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
     <row r="184" spans="1:12" ht="49.5">
-      <c r="A184" s="46"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="3" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H184" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="I184" s="27" t="s">
-        <v>591</v>
+      <c r="H184" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="I184" s="26" t="s">
+        <v>556</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -10220,11 +10471,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L184">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="手动/室内"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="12">
     <mergeCell ref="A65:A130"/>
@@ -10268,7 +10515,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>113</v>
@@ -10277,440 +10524,440 @@
         <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="19">
+        <v>983</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19">
+        <v>984</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19">
+        <v>985</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19">
+        <v>987</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19">
+        <v>997</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19">
+        <v>998</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="19">
+        <v>999</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19">
+        <v>1001</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="19">
+        <v>1002</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19">
+        <v>1003</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="19">
+        <v>1005</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="19">
+        <v>1006</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19">
+        <v>1008</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19">
+        <v>1009</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19">
+        <v>1010</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19">
+        <v>1011</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19">
+        <v>1012</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19">
+        <v>1013</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="20">
-        <v>983</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="19">
+        <v>1014</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19">
+        <v>1015</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="19">
+        <v>1016</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="19">
+        <v>1017</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19">
+        <v>1018</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20">
-        <v>984</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="20">
-        <v>985</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="20">
-        <v>987</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="20">
-        <v>997</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20">
-        <v>998</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20">
-        <v>999</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20">
-        <v>1001</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="20">
-        <v>1002</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19">
+        <v>1019</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="20">
-        <v>1003</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19">
+        <v>1020</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="20">
-        <v>1005</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="20">
-        <v>1006</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20">
-        <v>1007</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20">
-        <v>1008</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="20">
-        <v>1009</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="20">
-        <v>1010</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="20">
-        <v>1011</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="20">
-        <v>1012</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>1013</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>1014</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20">
-        <v>1015</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20">
-        <v>1016</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20">
-        <v>1017</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>1018</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20">
-        <v>1019</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20">
-        <v>1020</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -10750,7 +10997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>

--- a/1.TestCase[SW]/TestCase[ST16_Full].xlsx
+++ b/1.TestCase[SW]/TestCase[ST16_Full].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="615" windowWidth="19200" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="19200" yWindow="615" windowWidth="19200" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试执行" sheetId="6" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="743">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,25 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器_Advanced_002</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_003</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_004</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_005</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_006</t>
-  </si>
-  <si>
     <t>1. Advanced mode 打开成功。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1127,9 +1108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_007</t>
-  </si>
-  <si>
     <t>1.飞机在CCC航线自主飞行过程中，任意时间将开关切换至Home.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,35 +1116,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_008</t>
-  </si>
-  <si>
     <t>1.分别在Follow/Watch me mode 下执行CCC 测试。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器_Advanced_009</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_010</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_011</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_012</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_013</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_014</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_015</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_016</t>
   </si>
   <si>
     <t>1.点击TASK/CAMERA按键。</t>
@@ -1181,9 +1132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_017</t>
-  </si>
-  <si>
     <t>1.屏幕出现对于POI功能的短暂介绍，点击SKIP或者阅读完毕点击ENTER，进入POI模式，遥控器左侧有对于POI操作的简略介绍，屏幕下方出现BACK、CENTER、START三个按钮；
 2.点击CENTER，当前飞机悬停的地点作为兴趣点，遥控器左上方出现SETING CENTER。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,21 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_018</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_019</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_020</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_021</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_022</t>
-  </si>
-  <si>
     <t>1.左右打副翼摇杆；
 2.前后推拉升降杆；
 3.左右打RUDDER；
@@ -1273,48 +1206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_Advanced_023</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_024</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_025</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_026</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_027</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_028</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_030</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_031</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_032</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_033</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_034</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_035</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_036</t>
-  </si>
-  <si>
-    <t>遥控器_Advanced_037</t>
-  </si>
-  <si>
     <t>1.点击JOUR功能；
 2.将飞机飞行至飞手至少10英尺以外的空中点击START或BACK.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,11 +1215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.执行过程中，如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或向上/下推拉升降舵，飞机继续完成未完成的航点任务，遥控器的“播放键”变成“暂停键”，其余摇杆均无效；
-2.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出POI功能，遥控器重新出现，CCC、Jour、Poi、Orbit、Take Off五个选项；飞手重新获得飞机操控权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.单控模式时，无论是FOLLOW还是全向模式，遥控器对于云台水平、俯仰控制无效，云台PAN和俯仰保持在滑动滑块的瞬间的角度，
 2.双控模式时，从控对云台有优先操控权，具体操控见云台PITCH控制和云台YAW控制（从控部分），不受TASK功能和主控影响。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,10 +1225,6 @@
   </si>
   <si>
     <t>1.分别在Follow/Watch me mode 下执行JOUR 测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器_Advanced_029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1353,72 +1235,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.屏幕下方出现CCC、JOUR、POI、ORBIT、TAKE OFF 5个选项。
-2.点击TAKE OFF功能后屏幕出现弹窗，点击CANCLE后弹窗关闭，可再点TAKE OFF弹出对话框。
-3.将滑块滑到最右侧后，滑块自动回复到最左侧，飞机不予执行，并有飞机处于HOME模式的提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击TAKE OFF功能；
-2.将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancle测试）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.滑动到最右侧后，马达从关机状态启动然后飞机垂直向上爬升，到达约2米后开始自动悬停；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当飞机处于悬停状态中，使用一键起飞功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当飞机已起飞后，无法执行一键起飞操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.点击TASK/CAMERA按键；
 2.点击TAKE OFF功能；
 3.将屏幕上的弹窗滑块滑到最右边。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Angle模式下，离飞机5米内，将滑块滑倒最右侧后，滑块自动回复到最左侧，飞机不予执行，并有距离过近的提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.点击TAKE OFF功能；
-2.将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancle测试）；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.点击TAKE OFF功能后屏幕出现弹窗，点击CANCLE后弹窗关闭，可再点TAKE OFF弹出对话框，如滑块滑动不到位，滑块回复到最左侧，可再次滑动，进入功能；
-2.滑动到最右侧后，马达从关机状态启动然后飞机垂直向上爬升，到达约2米后开始自动悬停；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Smart(Follow)模式下，离飞机5米内，将滑块滑倒最右侧后，滑块自动回复到最左侧，飞机不予执行，并有距离过近的提示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1646,11 +1469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.当飞机自动迫降时，起落架自动放下，
-2.拨动起落架开关，起落架始终保持放状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1927,75 +1745,6 @@
 2.遥控器、飞机有足够的GPS，且已全部完成校准，
 3.遥控器与飞机、云台绑定成，
 4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.用单控在Angle mode下飞行飞机，
-6.飞机已经在执行JOUR任务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在JOUR航线上自主飞行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机已经在执行功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.遥控器拨杆切换在Home模式，
-6.将飞机放置在平地上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.遥控器拨杆切换在Angle模式，
-6.将飞机放置在平地上（距离飞手五米开外）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机在Angle 模式下起飞，处于悬停状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.遥控器拨杆切换在Angle模式，
-6.将飞机放置在平地上（距离飞手五米内）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.遥控器拨杆切换在Smart模式，
-6.将飞机放置在平地上（距离飞手五米开外）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2013,14 +1762,6 @@
 4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
 5.遥控器拨杆切换在Smart模式，
 6.将飞机放置在平地上（距离飞手五米内）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
-2.遥控器、飞机有足够的GPS，且已全部完成校准，
-3.遥控器与飞机、云台绑定成，
-4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
-5.飞机电池满电状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3362,14 +3103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Realsense功能、New Trim功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加Realsense功能及New Trim功能测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2.选中Camera成功，"Set status"</t>
     </r>
@@ -3603,10 +3336,6 @@
     <t>1-1.点击后，飞机发出一声哔哔哔声，尾灯开始红、绿交替慢闪，表示已经进入磁阻传感器校准模式；
 1-2.随后尾灯开始红、绿交替快闪，表示磁阻传感器校准开始；
 1-3.沿着电机方向两端其中两只灯开始快闪，以快闪两灯为轴转动机身，待另两只灯开始快闪则继续以其进行转动，直到所有灯校准完毕；                                                                                   1-4.校准通过后尾灯红、绿快闪，电机发出校准通过声，随后飞机自动重启。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器_校准_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3921,7 +3650,308 @@
 2-1.想取消任务，点击BACK,遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；
 2-2.若需继续任务，点击START后，将屏幕中弹窗的滑块滑到最右侧，飞机中央LED灯紫、绿慢闪，如云台俯仰不垂直于地面，飞机自动自旋，直至机头朝向与云台前向朝向相反，飞机沿着云台相机透镜的主光轴的反向延长线，远离所拍摄的景物飞去，向后飞30米后，飞机调转机头，指向云台前向，又自动按照原路线返回，回到START点后自动悬停，Jour状态自动退出；
 2-3.云台俯仰垂直地面时，飞机不会自旋，只会垂直爬升，然后再落回START点，Jour状态自动退出；
-2-4.如果开始时滑动不到位，滑块回复到最左侧，可再次滑动，如点击Cancle后弹窗关闭，可再点Start弹出对话框。</t>
+2-4.如果开始时滑动不到位，滑块恢复到最左侧，可再次滑动，如点击Cancel后弹窗关闭，可再点Start弹出对话框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.用单控在Angle mode下飞行飞机，
+6.飞机已经在执行JOUR任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行过程中，如点击“暂停”键飞机会在当前位置保持悬停，原“暂停”键变成“播放”键，点击“播放”键或向上/下推拉升降舵，飞机继续完成未完成的航点任务，遥控器的“播放键”变成“暂停键”，其余摇杆均无效；
+2.在执行过程中点击EXIT后或拨动飞行模式选择开关，飞机退出JOUR功能，遥控器重新出现CCC、JOUR、POI、ORBIT、TAKE OFF五个选项；飞手重新获得飞机操控权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在JOUR航线上自主飞行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机已经在执行功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.遥控器拨杆切换在Home模式，
+6.将飞机放置在平地上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏幕下方出现CCC、JOUR、POI、ORBIT、TAKE OFF 5个选项。
+2.点击TAKE OFF功能后屏幕出现弹窗，点击CANCEL后弹窗关闭，可再点TAKE OFF弹出对话框。
+3.将滑块滑到最右侧后，滑块自动恢复到最左侧，飞机不予执行，并有飞机处于HOME模式的提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.遥控器拨杆切换在Angle模式，
+6.将飞机放置在平地上（距离飞手五米开外）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击TAKE OFF功能；
+2.将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancel测试）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机在Angle 模式下起飞，处于悬停状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当飞机处于悬停状态中，点击TAKE OFF功能按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当飞机已起飞后，无法执行TAKE OFF操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.遥控器拨杆切换在Angle模式，
+6.将飞机放置在平地上（距离飞手五米内）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Angle模式下，离飞机5米内，将滑块滑倒最右侧后，滑块自动恢复到最左侧，飞机不予执行，并有距离过近的提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.遥控器拨杆切换在Smart模式，
+6.将飞机放置在平地上（距离飞手五米开外）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.点击TAKE OFF功能；
+2.将屏幕上的弹窗滑块滑到最右边（可穿插故意滑动不到位和点击Cancel测试）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.点击TAKE OFF功能后屏幕出现弹窗，点击CANCEL后弹窗关闭，可再点TAKE OFF弹出对话框，如滑块滑动不到位，滑块恢复到最左侧，可再次滑动，进入功能；
+2.滑动到最右侧后，马达从关机状态启动然后飞机垂直向上爬升，到达约2米后开始自动悬停；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Smart(Follow)模式下，离飞机5米内，将滑块滑倒最右侧后，滑块自动恢复到最左侧，飞机不予执行，并有距离过近的提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器_TASK_001</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_002</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_003</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_004</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_005</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_006</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_007</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_008</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_009</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_010</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_011</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_012</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_013</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_014</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_015</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_016</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_017</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_018</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_019</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_020</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_021</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_022</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_023</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_024</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_025</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_026</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_027</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_028</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_029</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_030</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_031</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_032</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_033</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_034</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_035</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_036</t>
+  </si>
+  <si>
+    <t>遥控器_TASK_037</t>
+  </si>
+  <si>
+    <t>1.当飞机自动迫降时，起落架自动放下，
+2.拨动起落架开关，起落架始终保持放下状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本，
+2.遥控器、飞机有足够的GPS，且已全部完成校准，
+3.遥控器与飞机、云台绑定成功，
+4.将测试设备放在室外，远离金属、磁性、建筑物灯干扰环境，
+5.飞机电池满电状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器_校准_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realsense功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Trim功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Realsense功能测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于New Trim功能变更测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4795,7 +4825,7 @@
     <row r="3" spans="4:9" ht="19.5" customHeight="1"/>
     <row r="4" spans="4:9" ht="21" customHeight="1">
       <c r="D4" s="30" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -4872,7 +4902,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4888,7 +4918,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4898,22 +4928,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4921,19 +4951,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="C3" s="15">
         <v>42480</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4941,19 +4971,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="C4" s="15">
         <v>42496</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4961,19 +4991,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="C5" s="15">
         <v>42509</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4981,30 +5011,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="C6" s="15">
-        <v>42569</v>
+        <v>42558</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>664</v>
+        <v>608</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>665</v>
+        <v>738</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="C7" s="15">
+        <v>42569</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14">
@@ -5056,7 +5096,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="40" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -5075,19 +5115,19 @@
         <v>122</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>507</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>563</v>
       </c>
       <c r="E3" s="35"/>
     </row>
@@ -5095,10 +5135,10 @@
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="10" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="E4" s="35"/>
     </row>
@@ -5114,19 +5154,19 @@
         <v>122</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.5" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="22" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="E6" s="35"/>
     </row>
@@ -5134,10 +5174,10 @@
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="22" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -5165,10 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A178" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5192,37 +5230,37 @@
         <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5">
@@ -5245,13 +5283,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5269,19 +5307,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="18"/>
@@ -5299,24 +5337,24 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="25" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="49.5">
@@ -5336,16 +5374,16 @@
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5369,18 +5407,18 @@
         <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="25" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33">
@@ -5398,16 +5436,16 @@
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5425,24 +5463,24 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="25" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="82.5">
@@ -5453,25 +5491,25 @@
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5480,10 +5518,10 @@
     <row r="10" spans="1:12" ht="82.5">
       <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -5492,30 +5530,30 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="25" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="82.5">
       <c r="A11" s="44"/>
       <c r="B11" s="3" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -5527,13 +5565,13 @@
         <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -5542,28 +5580,28 @@
     <row r="12" spans="1:12" ht="82.5">
       <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -5572,10 +5610,10 @@
     <row r="13" spans="1:12" ht="82.5">
       <c r="A13" s="44"/>
       <c r="B13" s="3" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -5584,30 +5622,30 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="25" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.5">
       <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -5619,13 +5657,13 @@
         <v>94</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -5651,13 +5689,13 @@
         <v>38</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5681,18 +5719,18 @@
         <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="25" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49.5">
@@ -5713,13 +5751,13 @@
         <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5743,13 +5781,13 @@
         <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5773,18 +5811,18 @@
         <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="66">
@@ -5805,18 +5843,18 @@
         <v>65</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="132">
@@ -5836,16 +5874,16 @@
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -5866,16 +5904,16 @@
         <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5887,13 +5925,13 @@
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>67</v>
@@ -5902,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5932,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5947,25 +5985,25 @@
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5977,7 +6015,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -5986,16 +6024,16 @@
         <v>70</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -6007,25 +6045,25 @@
         <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>617</v>
+        <v>561</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>614</v>
+        <v>558</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -6034,28 +6072,28 @@
     <row r="28" spans="1:12" ht="82.5">
       <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>618</v>
+        <v>562</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>620</v>
+        <v>564</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -6064,7 +6102,7 @@
     <row r="29" spans="1:12" ht="99">
       <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -6082,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -6094,7 +6132,7 @@
     <row r="30" spans="1:12" ht="82.5">
       <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -6112,10 +6150,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="3"/>
@@ -6124,7 +6162,7 @@
     <row r="31" spans="1:12" ht="66">
       <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
@@ -6136,16 +6174,16 @@
         <v>77</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -6154,7 +6192,7 @@
     <row r="32" spans="1:12" ht="66">
       <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -6163,19 +6201,19 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -6184,7 +6222,7 @@
     <row r="33" spans="1:12" ht="132">
       <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
@@ -6193,19 +6231,19 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -6214,28 +6252,28 @@
     <row r="34" spans="1:12" ht="82.5">
       <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>659</v>
+        <v>603</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>660</v>
+        <v>604</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -6244,10 +6282,10 @@
     <row r="35" spans="1:12" ht="66">
       <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -6262,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="3"/>
@@ -6274,7 +6312,7 @@
     <row r="36" spans="1:12" ht="165">
       <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>42</v>
@@ -6292,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J36" s="19"/>
       <c r="K36" s="3"/>
@@ -6304,7 +6342,7 @@
     <row r="37" spans="1:12" ht="49.5">
       <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
@@ -6313,19 +6351,19 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>667</v>
+        <v>609</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -6334,7 +6372,7 @@
     <row r="38" spans="1:12" ht="82.5">
       <c r="A38" s="44"/>
       <c r="B38" s="3" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>86</v>
@@ -6343,19 +6381,19 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>668</v>
+        <v>610</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>669</v>
+        <v>611</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -6364,7 +6402,7 @@
     <row r="39" spans="1:12" ht="99">
       <c r="A39" s="44"/>
       <c r="B39" s="3" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>90</v>
@@ -6373,19 +6411,19 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>668</v>
+        <v>610</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>670</v>
+        <v>612</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -6394,7 +6432,7 @@
     <row r="40" spans="1:12" ht="66">
       <c r="A40" s="44"/>
       <c r="B40" s="3" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>88</v>
@@ -6406,16 +6444,16 @@
         <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>671</v>
+        <v>613</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -6424,7 +6462,7 @@
     <row r="41" spans="1:12" ht="66">
       <c r="A41" s="44"/>
       <c r="B41" s="3" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
@@ -6436,16 +6474,16 @@
         <v>89</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>672</v>
+        <v>614</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -6454,7 +6492,7 @@
     <row r="42" spans="1:12" ht="99">
       <c r="A42" s="44"/>
       <c r="B42" s="3" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -6472,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -6484,7 +6522,7 @@
     <row r="43" spans="1:12" ht="99">
       <c r="A43" s="44"/>
       <c r="B43" s="3" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -6502,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -6514,7 +6552,7 @@
     <row r="44" spans="1:12" ht="82.5">
       <c r="A44" s="44"/>
       <c r="B44" s="3" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>91</v>
@@ -6523,19 +6561,19 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -6544,7 +6582,7 @@
     <row r="45" spans="1:12" ht="82.5">
       <c r="A45" s="44"/>
       <c r="B45" s="3" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>124</v>
@@ -6556,16 +6594,16 @@
         <v>125</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>673</v>
+        <v>615</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -6574,7 +6612,7 @@
     <row r="46" spans="1:12" ht="132">
       <c r="A46" s="44"/>
       <c r="B46" s="3" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>92</v>
@@ -6583,19 +6621,19 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>676</v>
+        <v>618</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>674</v>
+        <v>616</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6604,7 +6642,7 @@
     <row r="47" spans="1:12" ht="99">
       <c r="A47" s="44"/>
       <c r="B47" s="3" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>92</v>
@@ -6613,30 +6651,30 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>675</v>
+        <v>617</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>677</v>
+        <v>619</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="82.5">
       <c r="A48" s="44"/>
       <c r="B48" s="3" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>123</v>
@@ -6645,19 +6683,19 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>678</v>
+        <v>620</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>679</v>
+        <v>621</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6666,10 +6704,10 @@
     <row r="49" spans="1:12" ht="66">
       <c r="A49" s="44"/>
       <c r="B49" s="3" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>680</v>
+        <v>622</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
@@ -6678,16 +6716,16 @@
         <v>98</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>681</v>
+        <v>623</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6696,10 +6734,10 @@
     <row r="50" spans="1:12" ht="66">
       <c r="A50" s="44"/>
       <c r="B50" s="3" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>682</v>
+        <v>624</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -6708,16 +6746,16 @@
         <v>98</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -6726,7 +6764,7 @@
     <row r="51" spans="1:12" ht="49.5">
       <c r="A51" s="44"/>
       <c r="B51" s="3" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>96</v>
@@ -6735,19 +6773,19 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6756,7 +6794,7 @@
     <row r="52" spans="1:12" ht="49.5">
       <c r="A52" s="44"/>
       <c r="B52" s="3" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>95</v>
@@ -6768,16 +6806,16 @@
         <v>97</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>683</v>
+        <v>625</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6786,7 +6824,7 @@
     <row r="53" spans="1:12" ht="49.5">
       <c r="A53" s="44"/>
       <c r="B53" s="3" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>95</v>
@@ -6798,16 +6836,16 @@
         <v>99</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>684</v>
+        <v>626</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -6816,7 +6854,7 @@
     <row r="54" spans="1:12" ht="66">
       <c r="A54" s="44"/>
       <c r="B54" s="3" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>95</v>
@@ -6828,16 +6866,16 @@
         <v>100</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>685</v>
+        <v>627</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -6846,7 +6884,7 @@
     <row r="55" spans="1:12" ht="66">
       <c r="A55" s="44"/>
       <c r="B55" s="3" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>95</v>
@@ -6858,16 +6896,16 @@
         <v>101</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>686</v>
+        <v>628</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -6876,7 +6914,7 @@
     <row r="56" spans="1:12" ht="82.5">
       <c r="A56" s="44"/>
       <c r="B56" s="3" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>102</v>
@@ -6885,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>103</v>
@@ -6894,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="3"/>
@@ -6906,7 +6944,7 @@
     <row r="57" spans="1:12" ht="49.5">
       <c r="A57" s="44"/>
       <c r="B57" s="3" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
@@ -6924,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -6936,7 +6974,7 @@
     <row r="58" spans="1:12" ht="99">
       <c r="A58" s="44"/>
       <c r="B58" s="3" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
@@ -6954,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -6966,7 +7004,7 @@
     <row r="59" spans="1:12" ht="99">
       <c r="A59" s="44"/>
       <c r="B59" s="3" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
@@ -6984,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6996,7 +7034,7 @@
     <row r="60" spans="1:12" ht="66">
       <c r="A60" s="44"/>
       <c r="B60" s="3" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>10</v>
@@ -7008,16 +7046,16 @@
         <v>110</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>687</v>
+        <v>629</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -7026,7 +7064,7 @@
     <row r="61" spans="1:12" ht="49.5">
       <c r="A61" s="44"/>
       <c r="B61" s="3" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>10</v>
@@ -7044,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="3"/>
@@ -7056,7 +7094,7 @@
     <row r="62" spans="1:12" ht="66">
       <c r="A62" s="44"/>
       <c r="B62" s="3" t="s">
-        <v>657</v>
+        <v>601</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -7074,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -7086,7 +7124,7 @@
     <row r="63" spans="1:12" ht="82.5">
       <c r="A63" s="44"/>
       <c r="B63" s="3" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
@@ -7104,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7116,7 +7154,7 @@
     <row r="64" spans="1:12" ht="82.5">
       <c r="A64" s="45"/>
       <c r="B64" s="3" t="s">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>10</v>
@@ -7134,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -7145,28 +7183,28 @@
     </row>
     <row r="65" spans="1:12" ht="132">
       <c r="A65" s="43" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>689</v>
+        <v>631</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I65" s="26"/>
       <c r="J65" s="3"/>
@@ -7176,28 +7214,28 @@
     <row r="66" spans="1:12" ht="99">
       <c r="A66" s="44"/>
       <c r="B66" s="3" t="s">
-        <v>688</v>
+        <v>630</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -7209,25 +7247,25 @@
         <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -7239,25 +7277,25 @@
         <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7269,25 +7307,25 @@
         <v>129</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -7296,88 +7334,90 @@
     <row r="70" spans="1:12" ht="99" customHeight="1">
       <c r="A70" s="44"/>
       <c r="B70" s="3" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A71" s="44"/>
+    <row r="71" spans="1:12" ht="66">
+      <c r="A71" s="45"/>
       <c r="B71" s="3" t="s">
-        <v>132</v>
+        <v>737</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>701</v>
+        <v>332</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>135</v>
+        <v>634</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>136</v>
+        <v>632</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>702</v>
+        <v>525</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A72" s="44"/>
+      <c r="A72" s="44" t="s">
+        <v>732</v>
+      </c>
       <c r="B72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -7386,28 +7426,28 @@
     <row r="73" spans="1:12" ht="115.5" customHeight="1">
       <c r="A73" s="44"/>
       <c r="B73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -7416,118 +7456,120 @@
     <row r="74" spans="1:12" ht="115.5" customHeight="1">
       <c r="A74" s="44"/>
       <c r="B74" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>704</v>
+        <v>147</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>703</v>
+        <v>139</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A75" s="44"/>
+      <c r="A75" s="44" t="s">
+        <v>733</v>
+      </c>
       <c r="B75" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>705</v>
+        <v>645</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>144</v>
+        <v>644</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="198" customHeight="1">
+    <row r="76" spans="1:12" ht="115.5" customHeight="1">
       <c r="A76" s="44"/>
       <c r="B76" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>145</v>
+        <v>646</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="115.5" customHeight="1">
+    <row r="77" spans="1:12" ht="198" customHeight="1">
       <c r="A77" s="44"/>
       <c r="B77" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -7536,45 +7578,51 @@
     <row r="78" spans="1:12" ht="115.5" customHeight="1">
       <c r="A78" s="44"/>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>706</v>
+        <v>148</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="132" customHeight="1">
-      <c r="A79" s="44"/>
+    <row r="79" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A79" s="44" t="s">
+        <v>734</v>
+      </c>
       <c r="B79" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>153</v>
+        <v>647</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>154</v>
+        <v>648</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>4</v>
@@ -7585,22 +7633,22 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="181.5" customHeight="1">
+    <row r="80" spans="1:12" ht="132" customHeight="1">
       <c r="A80" s="44"/>
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>4</v>
@@ -7611,22 +7659,22 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="363" customHeight="1">
+    <row r="81" spans="1:12" ht="181.5" customHeight="1">
       <c r="A81" s="44"/>
       <c r="B81" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>4</v>
@@ -7637,22 +7685,22 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="165" customHeight="1">
+    <row r="82" spans="1:12" ht="363" customHeight="1">
       <c r="A82" s="44"/>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>4</v>
@@ -7663,49 +7711,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="115.5" customHeight="1">
+    <row r="83" spans="1:12" ht="165" customHeight="1">
       <c r="A83" s="44"/>
       <c r="B83" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>556</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A84" s="44"/>
+      <c r="A84" s="44" t="s">
+        <v>735</v>
+      </c>
       <c r="B84" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>165</v>
@@ -7714,10 +7760,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -7726,16 +7772,16 @@
     <row r="85" spans="1:12" ht="115.5" customHeight="1">
       <c r="A85" s="44"/>
       <c r="B85" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>165</v>
@@ -7744,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -7756,16 +7802,16 @@
     <row r="86" spans="1:12" ht="115.5" customHeight="1">
       <c r="A86" s="44"/>
       <c r="B86" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>710</v>
+        <v>170</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>165</v>
@@ -7774,10 +7820,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -7786,28 +7832,28 @@
     <row r="87" spans="1:12" ht="115.5" customHeight="1">
       <c r="A87" s="44"/>
       <c r="B87" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>172</v>
+        <v>651</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -7816,28 +7862,28 @@
     <row r="88" spans="1:12" ht="115.5" customHeight="1">
       <c r="A88" s="44"/>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -7846,28 +7892,28 @@
     <row r="89" spans="1:12" ht="115.5" customHeight="1">
       <c r="A89" s="44"/>
       <c r="B89" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -7876,28 +7922,28 @@
     <row r="90" spans="1:12" ht="115.5" customHeight="1">
       <c r="A90" s="44"/>
       <c r="B90" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -7906,28 +7952,28 @@
     <row r="91" spans="1:12" ht="115.5" customHeight="1">
       <c r="A91" s="44"/>
       <c r="B91" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -7936,28 +7982,28 @@
     <row r="92" spans="1:12" ht="115.5" customHeight="1">
       <c r="A92" s="44"/>
       <c r="B92" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>711</v>
+        <v>184</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -7966,289 +8012,291 @@
     <row r="93" spans="1:12" ht="115.5" customHeight="1">
       <c r="A93" s="44"/>
       <c r="B93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>195</v>
+        <v>652</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="132" customHeight="1">
-      <c r="A94" s="44"/>
+    <row r="94" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A94" s="44" t="s">
+        <v>736</v>
+      </c>
       <c r="B94" s="3" t="s">
-        <v>189</v>
+        <v>693</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>713</v>
+        <v>188</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="181.5" customHeight="1">
+    <row r="95" spans="1:12" ht="132" customHeight="1">
       <c r="A95" s="44"/>
       <c r="B95" s="3" t="s">
-        <v>190</v>
+        <v>694</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>714</v>
+        <v>654</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="132" customHeight="1">
+    <row r="96" spans="1:12" ht="181.5" customHeight="1">
       <c r="A96" s="44"/>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>695</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>715</v>
+        <v>655</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="231" customHeight="1">
+    <row r="97" spans="1:12" ht="132" customHeight="1">
       <c r="A97" s="44"/>
       <c r="B97" s="3" t="s">
-        <v>192</v>
+        <v>696</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>716</v>
+        <v>653</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>723</v>
+        <v>190</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="148.5" customHeight="1">
+    <row r="98" spans="1:12" ht="231" customHeight="1">
       <c r="A98" s="44"/>
       <c r="B98" s="3" t="s">
-        <v>193</v>
+        <v>697</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>718</v>
+        <v>657</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>197</v>
+        <v>664</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>198</v>
+        <v>658</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="181.5" customHeight="1">
+    <row r="99" spans="1:12" ht="148.5" customHeight="1">
       <c r="A99" s="44"/>
       <c r="B99" s="3" t="s">
-        <v>201</v>
+        <v>698</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>719</v>
+        <v>659</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="132" customHeight="1">
+    <row r="100" spans="1:12" ht="181.5" customHeight="1">
       <c r="A100" s="44"/>
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>699</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>556</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="115.5" customHeight="1">
+    <row r="101" spans="1:12" ht="132" customHeight="1">
       <c r="A101" s="44"/>
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>700</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="132" customHeight="1">
+    <row r="102" spans="1:12" ht="115.5" customHeight="1">
       <c r="A102" s="44"/>
       <c r="B102" s="3" t="s">
-        <v>207</v>
+        <v>701</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>556</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -8256,58 +8304,58 @@
     <row r="103" spans="1:12" ht="132" customHeight="1">
       <c r="A103" s="44"/>
       <c r="B103" s="3" t="s">
-        <v>208</v>
+        <v>702</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="148.5" customHeight="1">
+    <row r="104" spans="1:12" ht="132" customHeight="1">
       <c r="A104" s="44"/>
       <c r="B104" s="3" t="s">
-        <v>209</v>
+        <v>703</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>722</v>
+        <v>202</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>721</v>
+        <v>661</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -8316,88 +8364,88 @@
     <row r="105" spans="1:12" ht="148.5" customHeight="1">
       <c r="A105" s="44"/>
       <c r="B105" s="3" t="s">
-        <v>210</v>
+        <v>704</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>726</v>
+        <v>666</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>220</v>
+        <v>663</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>221</v>
+        <v>662</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="181.5" customHeight="1">
+    <row r="106" spans="1:12" ht="148.5" customHeight="1">
       <c r="A106" s="44"/>
       <c r="B106" s="3" t="s">
-        <v>211</v>
+        <v>705</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>726</v>
+        <v>667</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>724</v>
+        <v>204</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="132" customHeight="1">
+    <row r="107" spans="1:12" ht="181.5" customHeight="1">
       <c r="A107" s="44"/>
       <c r="B107" s="3" t="s">
-        <v>212</v>
+        <v>706</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>727</v>
+        <v>667</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>224</v>
+        <v>665</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -8406,172 +8454,172 @@
     <row r="108" spans="1:12" ht="132" customHeight="1">
       <c r="A108" s="44"/>
       <c r="B108" s="3" t="s">
-        <v>213</v>
+        <v>707</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="115.5" customHeight="1">
+    <row r="109" spans="1:12" ht="132" customHeight="1">
       <c r="A109" s="44"/>
       <c r="B109" s="3" t="s">
-        <v>216</v>
+        <v>708</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I109" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="198" customHeight="1">
+    <row r="110" spans="1:12" ht="115.5" customHeight="1">
       <c r="A110" s="44"/>
       <c r="B110" s="3" t="s">
-        <v>227</v>
+        <v>709</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="I110" s="26" t="s">
-        <v>556</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="148.5" customHeight="1">
+    <row r="111" spans="1:12" ht="198" customHeight="1">
       <c r="A111" s="44"/>
       <c r="B111" s="3" t="s">
-        <v>228</v>
+        <v>710</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>730</v>
+        <v>653</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>232</v>
+        <v>669</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>233</v>
+        <v>670</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H111" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="181.5" customHeight="1">
+    <row r="112" spans="1:12" ht="148.5" customHeight="1">
       <c r="A112" s="44"/>
       <c r="B112" s="3" t="s">
-        <v>229</v>
+        <v>711</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>732</v>
+        <v>211</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="132" customHeight="1">
+    <row r="113" spans="1:12" ht="181.5" customHeight="1">
       <c r="A113" s="44"/>
       <c r="B113" s="3" t="s">
-        <v>230</v>
+        <v>712</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>731</v>
+        <v>671</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>224</v>
+        <v>673</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -8580,101 +8628,113 @@
     <row r="114" spans="1:12" ht="132" customHeight="1">
       <c r="A114" s="44"/>
       <c r="B114" s="3" t="s">
-        <v>231</v>
+        <v>713</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>733</v>
+        <v>672</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="115.5" customHeight="1">
+    <row r="115" spans="1:12" ht="132" customHeight="1">
       <c r="A115" s="44"/>
       <c r="B115" s="3" t="s">
-        <v>236</v>
+        <v>714</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+        <v>213</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I115" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="264" customHeight="1">
+    <row r="116" spans="1:12" ht="115.5" customHeight="1">
       <c r="A116" s="44"/>
       <c r="B116" s="3" t="s">
-        <v>237</v>
+        <v>715</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="148.5" customHeight="1">
+    <row r="117" spans="1:12" ht="264" customHeight="1">
       <c r="A117" s="44"/>
       <c r="B117" s="3" t="s">
-        <v>238</v>
+        <v>716</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>382</v>
+        <v>653</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+        <v>675</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -8682,47 +8742,59 @@
     <row r="118" spans="1:12" ht="148.5" customHeight="1">
       <c r="A118" s="44"/>
       <c r="B118" s="3" t="s">
-        <v>239</v>
+        <v>717</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>382</v>
+        <v>676</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I118" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="132" customHeight="1">
+    <row r="119" spans="1:12" ht="148.5" customHeight="1">
       <c r="A119" s="44"/>
       <c r="B119" s="3" t="s">
-        <v>240</v>
+        <v>718</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>383</v>
+        <v>676</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
+        <v>677</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -8730,141 +8802,173 @@
     <row r="120" spans="1:12" ht="132" customHeight="1">
       <c r="A120" s="44"/>
       <c r="B120" s="3" t="s">
-        <v>241</v>
+        <v>719</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>384</v>
+        <v>678</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="115.5" customHeight="1">
+    <row r="121" spans="1:12" ht="132" customHeight="1">
       <c r="A121" s="44"/>
       <c r="B121" s="3" t="s">
-        <v>256</v>
+        <v>720</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>381</v>
+        <v>679</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="148.5" customHeight="1">
+    <row r="122" spans="1:12" ht="115.5" customHeight="1">
       <c r="A122" s="44"/>
       <c r="B122" s="3" t="s">
-        <v>242</v>
+        <v>721</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>385</v>
+        <v>642</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="165" customHeight="1">
+    <row r="123" spans="1:12" ht="148.5" customHeight="1">
       <c r="A123" s="44"/>
       <c r="B123" s="3" t="s">
-        <v>243</v>
+        <v>722</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>386</v>
+        <v>680</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
+        <v>681</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I123" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="148.5" customHeight="1">
+    <row r="124" spans="1:12" ht="165" customHeight="1">
       <c r="A124" s="44"/>
       <c r="B124" s="3" t="s">
-        <v>244</v>
+        <v>723</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>387</v>
+        <v>682</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>261</v>
+        <v>683</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="165" customHeight="1">
+    <row r="125" spans="1:12" ht="148.5" customHeight="1">
       <c r="A125" s="44"/>
       <c r="B125" s="3" t="s">
-        <v>245</v>
+        <v>724</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>388</v>
+        <v>684</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>263</v>
+        <v>685</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
+        <v>686</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -8872,155 +8976,177 @@
     <row r="126" spans="1:12" ht="165" customHeight="1">
       <c r="A126" s="44"/>
       <c r="B126" s="3" t="s">
-        <v>246</v>
+        <v>725</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>389</v>
+        <v>687</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
+        <v>688</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I126" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="148.5" customHeight="1">
+    <row r="127" spans="1:12" ht="165" customHeight="1">
       <c r="A127" s="44"/>
       <c r="B127" s="3" t="s">
-        <v>247</v>
+        <v>726</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>390</v>
+        <v>689</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>261</v>
+        <v>690</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+        <v>691</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="165" customHeight="1">
+    <row r="128" spans="1:12" ht="148.5" customHeight="1">
       <c r="A128" s="44"/>
       <c r="B128" s="3" t="s">
-        <v>248</v>
+        <v>727</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>257</v>
+        <v>685</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
+        <v>686</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="82.5" customHeight="1">
+    <row r="129" spans="1:12" ht="165" customHeight="1">
       <c r="A129" s="44"/>
       <c r="B129" s="3" t="s">
-        <v>249</v>
+        <v>728</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
+        <v>692</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="66">
-      <c r="A130" s="45"/>
+    <row r="130" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A130" s="44"/>
       <c r="B130" s="3" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>379</v>
+        <v>222</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>693</v>
+        <v>223</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>691</v>
+        <v>224</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="I130" s="3"/>
+        <v>521</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12" ht="115.5">
       <c r="A131" s="43" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G131" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G131" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="I131" s="26" t="s">
-        <v>556</v>
-      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -9028,23 +9154,29 @@
     <row r="132" spans="1:12" ht="115.5">
       <c r="A132" s="44"/>
       <c r="B132" s="3" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I132" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -9052,23 +9184,29 @@
     <row r="133" spans="1:12" ht="115.5">
       <c r="A133" s="44"/>
       <c r="B133" s="3" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I133" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -9076,23 +9214,29 @@
     <row r="134" spans="1:12" ht="115.5">
       <c r="A134" s="44"/>
       <c r="B134" s="3" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H134" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I134" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -9100,23 +9244,29 @@
     <row r="135" spans="1:12" ht="115.5">
       <c r="A135" s="44"/>
       <c r="B135" s="3" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I135" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -9124,23 +9274,29 @@
     <row r="136" spans="1:12" ht="115.5">
       <c r="A136" s="44"/>
       <c r="B136" s="3" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -9148,54 +9304,60 @@
     <row r="137" spans="1:12" ht="115.5">
       <c r="A137" s="44"/>
       <c r="B137" s="3" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
+        <v>730</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I137" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
     </row>
     <row r="138" spans="1:12" ht="115.5">
       <c r="A138" s="43" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -9204,23 +9366,29 @@
     <row r="139" spans="1:12" ht="115.5">
       <c r="A139" s="44"/>
       <c r="B139" s="3" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
+        <v>361</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H139" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -9228,23 +9396,29 @@
     <row r="140" spans="1:12" ht="115.5">
       <c r="A140" s="44"/>
       <c r="B140" s="3" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I140" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -9252,23 +9426,29 @@
     <row r="141" spans="1:12" ht="115.5">
       <c r="A141" s="44"/>
       <c r="B141" s="3" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -9276,23 +9456,29 @@
     <row r="142" spans="1:12" ht="115.5">
       <c r="A142" s="44"/>
       <c r="B142" s="3" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -9300,23 +9486,29 @@
     <row r="143" spans="1:12" ht="115.5">
       <c r="A143" s="44"/>
       <c r="B143" s="3" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+        <v>369</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H143" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -9324,23 +9516,29 @@
     <row r="144" spans="1:12" ht="115.5">
       <c r="A144" s="44"/>
       <c r="B144" s="3" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H144" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I144" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -9348,49 +9546,57 @@
     <row r="145" spans="1:12" ht="115.5">
       <c r="A145" s="44"/>
       <c r="B145" s="3" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
     </row>
     <row r="146" spans="1:12" ht="132">
       <c r="A146" s="43" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -9398,23 +9604,25 @@
     <row r="147" spans="1:12" ht="132">
       <c r="A147" s="44"/>
       <c r="B147" s="3" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -9422,23 +9630,29 @@
     <row r="148" spans="1:12" ht="132">
       <c r="A148" s="44"/>
       <c r="B148" s="3" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -9446,23 +9660,25 @@
     <row r="149" spans="1:12" ht="132">
       <c r="A149" s="44"/>
       <c r="B149" s="3" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -9470,23 +9686,29 @@
     <row r="150" spans="1:12" ht="132">
       <c r="A150" s="44"/>
       <c r="B150" s="3" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H150" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I150" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -9494,49 +9716,57 @@
     <row r="151" spans="1:12" ht="132">
       <c r="A151" s="45"/>
       <c r="B151" s="3" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
     </row>
     <row r="152" spans="1:12" ht="115.5">
       <c r="A152" s="43" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>381</v>
+        <v>642</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -9544,23 +9774,29 @@
     <row r="153" spans="1:12" ht="115.5">
       <c r="A153" s="44"/>
       <c r="B153" s="3" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>381</v>
+        <v>642</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I153" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -9568,23 +9804,29 @@
     <row r="154" spans="1:12" ht="115.5">
       <c r="A154" s="44"/>
       <c r="B154" s="3" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>381</v>
+        <v>642</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -9592,23 +9834,29 @@
     <row r="155" spans="1:12" ht="115.5">
       <c r="A155" s="44"/>
       <c r="B155" s="3" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H155" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I155" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -9616,54 +9864,56 @@
     <row r="156" spans="1:12" ht="148.5">
       <c r="A156" s="45"/>
       <c r="B156" s="3" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
     <row r="157" spans="1:12" ht="66">
       <c r="A157" s="43" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -9672,28 +9922,28 @@
     <row r="158" spans="1:12" ht="66">
       <c r="A158" s="44"/>
       <c r="B158" s="3" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H158" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -9702,28 +9952,28 @@
     <row r="159" spans="1:12" ht="66">
       <c r="A159" s="44"/>
       <c r="B159" s="3" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H159" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -9732,28 +9982,28 @@
     <row r="160" spans="1:12" ht="66">
       <c r="A160" s="44"/>
       <c r="B160" s="3" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H160" s="26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -9762,23 +10012,29 @@
     <row r="161" spans="1:12" ht="82.5">
       <c r="A161" s="44"/>
       <c r="B161" s="3" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
+        <v>311</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -9786,54 +10042,60 @@
     <row r="162" spans="1:12" ht="82.5">
       <c r="A162" s="45"/>
       <c r="B162" s="3" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H162" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:12" ht="99">
       <c r="A163" s="43" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H163" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -9842,28 +10104,28 @@
     <row r="164" spans="1:12" ht="148.5">
       <c r="A164" s="44"/>
       <c r="B164" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H164" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -9872,28 +10134,28 @@
     <row r="165" spans="1:12" ht="99">
       <c r="A165" s="44"/>
       <c r="B165" s="3" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H165" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -9902,28 +10164,28 @@
     <row r="166" spans="1:12" ht="148.5">
       <c r="A166" s="44"/>
       <c r="B166" s="3" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H166" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -9932,28 +10194,28 @@
     <row r="167" spans="1:12" ht="82.5">
       <c r="A167" s="44"/>
       <c r="B167" s="3" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H167" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -9962,28 +10224,28 @@
     <row r="168" spans="1:12" ht="66">
       <c r="A168" s="44"/>
       <c r="B168" s="18" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H168" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -9992,28 +10254,28 @@
     <row r="169" spans="1:12" ht="66">
       <c r="A169" s="44"/>
       <c r="B169" s="18" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>593</v>
+        <v>537</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H169" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -10022,28 +10284,28 @@
     <row r="170" spans="1:12" ht="66">
       <c r="A170" s="44"/>
       <c r="B170" s="18" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H170" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -10052,28 +10314,28 @@
     <row r="171" spans="1:12" ht="99">
       <c r="A171" s="44"/>
       <c r="B171" s="18" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H171" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -10082,28 +10344,28 @@
     <row r="172" spans="1:12" ht="66">
       <c r="A172" s="44"/>
       <c r="B172" s="18" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H172" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -10112,28 +10374,28 @@
     <row r="173" spans="1:12" ht="66">
       <c r="A173" s="44"/>
       <c r="B173" s="18" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H173" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -10142,28 +10404,28 @@
     <row r="174" spans="1:12" ht="66">
       <c r="A174" s="44"/>
       <c r="B174" s="18" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H174" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -10172,28 +10434,28 @@
     <row r="175" spans="1:12" ht="82.5">
       <c r="A175" s="44"/>
       <c r="B175" s="18" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H175" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -10202,28 +10464,28 @@
     <row r="176" spans="1:12" ht="82.5">
       <c r="A176" s="44"/>
       <c r="B176" s="18" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="F176" s="29" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H176" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -10232,28 +10494,28 @@
     <row r="177" spans="1:12" ht="82.5">
       <c r="A177" s="44"/>
       <c r="B177" s="18" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H177" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -10262,28 +10524,28 @@
     <row r="178" spans="1:12" ht="99">
       <c r="A178" s="44"/>
       <c r="B178" s="3" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H178" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -10292,28 +10554,28 @@
     <row r="179" spans="1:12" ht="66">
       <c r="A179" s="44"/>
       <c r="B179" s="3" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H179" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -10322,28 +10584,28 @@
     <row r="180" spans="1:12" ht="66">
       <c r="A180" s="44"/>
       <c r="B180" s="3" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H180" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -10352,28 +10614,28 @@
     <row r="181" spans="1:12" ht="66">
       <c r="A181" s="44"/>
       <c r="B181" s="3" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H181" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -10382,28 +10644,28 @@
     <row r="182" spans="1:12" ht="132">
       <c r="A182" s="44"/>
       <c r="B182" s="3" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H182" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -10412,28 +10674,28 @@
     <row r="183" spans="1:12" ht="99">
       <c r="A183" s="44"/>
       <c r="B183" s="3" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H183" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -10442,28 +10704,28 @@
     <row r="184" spans="1:12" ht="49.5">
       <c r="A184" s="45"/>
       <c r="B184" s="3" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H184" s="26" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -10473,19 +10735,24 @@
   <autoFilter ref="A1:L184">
     <filterColumn colId="3"/>
   </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A65:A130"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A64"/>
     <mergeCell ref="A146:A151"/>
     <mergeCell ref="A163:A184"/>
     <mergeCell ref="A152:A156"/>
     <mergeCell ref="A157:A162"/>
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:A145"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A64"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="A94:A130"/>
+    <mergeCell ref="A65:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10515,7 +10782,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>113</v>
@@ -10524,10 +10791,10 @@
         <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10535,16 +10802,16 @@
         <v>983</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10552,16 +10819,16 @@
         <v>984</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10569,16 +10836,16 @@
         <v>985</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10586,13 +10853,13 @@
         <v>987</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -10601,13 +10868,13 @@
         <v>997</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -10616,13 +10883,13 @@
         <v>998</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -10631,16 +10898,16 @@
         <v>999</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10648,13 +10915,13 @@
         <v>1000</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -10663,13 +10930,13 @@
         <v>1001</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -10678,13 +10945,13 @@
         <v>1002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -10693,16 +10960,16 @@
         <v>1003</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10710,16 +10977,16 @@
         <v>1005</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10727,16 +10994,16 @@
         <v>1006</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10744,16 +11011,16 @@
         <v>1007</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10761,16 +11028,16 @@
         <v>1008</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10778,16 +11045,16 @@
         <v>1009</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10795,13 +11062,13 @@
         <v>1010</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -10810,16 +11077,16 @@
         <v>1011</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10827,16 +11094,16 @@
         <v>1012</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10844,16 +11111,16 @@
         <v>1013</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10861,13 +11128,13 @@
         <v>1014</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -10876,13 +11143,13 @@
         <v>1015</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -10891,13 +11158,13 @@
         <v>1016</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -10906,13 +11173,13 @@
         <v>1017</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -10921,13 +11188,13 @@
         <v>1018</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -10936,13 +11203,13 @@
         <v>1019</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -10951,13 +11218,13 @@
         <v>1020</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -10997,7 +11264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
